--- a/Data/Tables/PlantDefine.xlsx
+++ b/Data/Tables/PlantDefine.xlsx
@@ -27,12 +27,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+  <si>
+    <t>字典id</t>
+  </si>
+  <si>
+    <t>物品id</t>
+  </si>
+  <si>
+    <t>物品名称</t>
+  </si>
   <si>
     <t>每个生长阶段的动画名称</t>
   </si>
   <si>
-    <t>每个生长阶段百分比</t>
+    <t>每个生长阶段的名称</t>
+  </si>
+  <si>
+    <t>生长阶段百分比突破口(0-1]</t>
   </si>
   <si>
     <t>成熟所需时间</t>
@@ -74,6 +86,9 @@
     <t>Animation</t>
   </si>
   <si>
+    <t>StagesName</t>
+  </si>
+  <si>
     <t>GrowthPercentPort</t>
   </si>
   <si>
@@ -95,10 +110,13 @@
     <t>测试</t>
   </si>
   <si>
-    <t>["Run1","Run2"]</t>
-  </si>
-  <si>
-    <t>[0.5,1]</t>
+    <t>["Run1","Run2","Run3"]</t>
+  </si>
+  <si>
+    <t>["发芽","开花","成熟"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,1]</t>
   </si>
 </sst>
 </file>
@@ -849,11 +867,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -917,7 +935,7 @@
     <cellStyle name="好 2" xfId="57"/>
     <cellStyle name="适中 2" xfId="58"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
       <font>
         <name val="微软雅黑"/>
@@ -975,6 +993,21 @@
         <patternFill patternType="none"/>
       </fill>
       <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1086,19 +1119,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J58" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:J58" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:K58" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:K58" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
     <tableColumn id="5" name="Name" dataDxfId="2"/>
     <tableColumn id="98" name="Animation" dataDxfId="3"/>
-    <tableColumn id="2" name="GrowthPercentPort" dataDxfId="4"/>
-    <tableColumn id="8" name="MatureTime" dataDxfId="5"/>
-    <tableColumn id="15" name="SeasonCount" dataDxfId="6"/>
-    <tableColumn id="16" name="HarvestId" dataDxfId="7"/>
-    <tableColumn id="7" name="HarvestCountMin" dataDxfId="8"/>
-    <tableColumn id="10" name="HarvestCountMax" dataDxfId="9"/>
+    <tableColumn id="4" name="StagesName" dataDxfId="4"/>
+    <tableColumn id="2" name="GrowthPercentPort" dataDxfId="5"/>
+    <tableColumn id="8" name="MatureTime" dataDxfId="6"/>
+    <tableColumn id="15" name="SeasonCount" dataDxfId="7"/>
+    <tableColumn id="16" name="HarvestId" dataDxfId="8"/>
+    <tableColumn id="7" name="HarvestCountMin" dataDxfId="9"/>
+    <tableColumn id="10" name="HarvestCountMax" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1391,10 +1425,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="14.25"/>
@@ -1403,98 +1437,115 @@
     <col min="2" max="2" width="8.28571428571429" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.7142857142857" style="2" customWidth="1"/>
     <col min="4" max="4" width="42.847619047619" style="3" customWidth="1"/>
-    <col min="5" max="10" width="16.2857142857143" style="3"/>
-    <col min="11" max="16384" width="16.2857142857143" style="4"/>
+    <col min="5" max="5" width="41.1428571428571" style="3" customWidth="1"/>
+    <col min="6" max="6" width="39.4285714285714" style="3" customWidth="1"/>
+    <col min="7" max="11" width="16.2857142857143" style="3"/>
+    <col min="12" max="16384" width="16.2857142857143" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+    <row r="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="12" customHeight="1" spans="2:11">
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
+        <v>24</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1502,27 +1553,30 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>1001</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1531,743 +1585,792 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
+    <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:8">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="1"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="1"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="1"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="1"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="1"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="10"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
       <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
       <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
       <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
       <c r="J42" s="10"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
       <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
       <c r="J44" s="10"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
       <c r="J45" s="10"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
       <c r="J46" s="10"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
       <c r="J47" s="10"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
       <c r="J48" s="10"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
       <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
       <c r="J50" s="10"/>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
       <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
       <c r="J52" s="10"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
       <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
       <c r="J54" s="10"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
       <c r="J55" s="10"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
       <c r="J56" s="10"/>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>54</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
       <c r="J57" s="10"/>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>55</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
       <c r="J58" s="10"/>
+      <c r="K58" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Tables/PlantDefine.xlsx
+++ b/Data/Tables/PlantDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="422">
   <si>
     <t>字典id</t>
   </si>
@@ -117,6 +117,1182 @@
   </si>
   <si>
     <t>[0,0.4,1]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run4"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,2]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run5"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,3]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run6"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,4]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run7"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,5]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run8"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,6]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run9"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,7]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run10"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,8]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run11"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,9]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run12"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,10]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run13"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,11]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run14"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,12]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run15"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,13]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run16"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,14]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run17"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,15]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run18"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,16]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run19"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,17]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run20"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,18]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run21"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,19]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run22"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,20]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run23"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,21]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run24"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,22]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run25"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,23]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run26"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,24]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run27"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,25]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run28"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,26]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run29"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,27]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run30"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,28]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run31"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,29]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run32"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,30]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run33"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,31]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run34"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,32]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run35"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,33]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run36"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,34]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run37"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,35]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run38"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,36]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run39"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,37]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run40"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,38]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run41"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,39]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run42"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,40]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run43"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,41]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run44"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,42]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run45"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,43]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run46"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,44]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run47"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,45]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run48"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,46]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run49"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,47]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run50"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,48]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run51"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,49]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run52"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,50]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run53"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,51]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run54"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,52]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run55"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,53]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run56"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,54]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run57"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,55]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run58"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,56]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run59"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,57]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run60"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,58]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run61"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,59]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run62"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,60]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run63"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,61]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run64"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,62]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run65"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,63]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run66"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,64]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run67"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,65]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run68"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,66]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run69"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,67]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run70"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,68]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run71"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,69]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run72"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,70]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run73"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,71]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run74"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,72]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run75"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,73]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run76"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,74]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run77"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,75]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run78"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,76]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run79"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,77]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run80"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,78]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run81"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,79]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run82"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,80]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run83"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,81]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run84"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,82]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run85"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,83]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run86"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,84]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run87"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,85]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run88"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,86]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run89"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,87]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run90"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,88]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run91"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,89]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run92"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,90]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run93"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,91]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run94"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,92]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run95"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,93]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run96"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,94]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run97"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,95]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run98"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,96]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run99"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,97]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run100"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,98]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run101"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,99]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run102"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,100]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run103"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,101]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run104"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,102]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run105"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,103]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run106"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,104]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run107"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,105]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run108"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,106]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run109"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,107]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run110"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,108]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run111"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,109]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run112"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,110]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run113"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,111]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run114"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,112]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run115"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,113]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run116"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,114]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run117"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,115]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run118"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,116]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run119"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,117]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run120"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,118]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run121"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,119]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run122"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,120]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run123"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,121]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run124"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,122]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run125"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,123]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run126"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,124]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run127"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,125]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run128"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,126]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run129"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,127]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run130"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,128]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run131"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,129]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run132"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,130]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run133"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,131]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run134"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,132]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run135"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,133]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run136"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,134]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run137"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,135]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run138"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,136]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run139"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,137]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run140"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,138]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run141"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,139]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run142"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,140]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run143"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,141]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run144"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,142]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run145"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,143]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run146"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,144]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run147"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,145]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run148"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,146]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run149"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,147]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run150"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,148]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run151"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,149]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run152"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,150]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run153"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,151]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run154"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,152]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run155"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,153]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run156"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,154]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run157"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,155]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run158"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,156]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run159"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,157]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run160"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,158]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run161"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,159]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run162"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,160]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run163"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,161]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run164"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,162]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run165"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,163]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run166"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,164]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run167"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,165]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run168"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,166]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run169"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,167]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run170"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,168]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run171"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,169]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run172"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,170]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run173"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,171]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run174"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,172]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run175"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,173]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run176"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,174]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run177"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,175]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run178"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,176]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run179"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,177]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run180"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,178]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run181"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,179]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run182"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,180]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run183"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,181]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run184"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,182]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run185"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,183]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run186"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,184]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run187"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,185]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run188"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,186]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run189"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,187]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run190"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,188]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run191"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,189]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run192"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,190]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run193"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,191]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run194"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,192]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run195"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,193]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run196"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,194]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run197"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,195]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run198"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,196]</t>
+  </si>
+  <si>
+    <t>["Run1","Run2","Run199"]</t>
+  </si>
+  <si>
+    <t>[0,0.4,197]</t>
   </si>
 </sst>
 </file>
@@ -843,7 +2019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -859,18 +2035,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,8 +2283,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:K58" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:K58" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:K200" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:K200" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
@@ -1425,10 +2589,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="14.25"/>
@@ -1571,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>1001</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>
@@ -1580,797 +2744,6865 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:1">
+    <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:11">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1004</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1005</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1007</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
+      <c r="K10" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1008</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1009</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1010</v>
+      </c>
+      <c r="J13" s="1">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="9"/>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="1">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1011</v>
+      </c>
+      <c r="J14" s="1">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9"/>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="1">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1012</v>
+      </c>
+      <c r="J15" s="1">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9"/>
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1013</v>
+      </c>
+      <c r="J16" s="1">
+        <v>14</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="9"/>
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="1">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1014</v>
+      </c>
+      <c r="J17" s="1">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="9"/>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="1">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1015</v>
+      </c>
+      <c r="J18" s="1">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="9"/>
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="1">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1016</v>
+      </c>
+      <c r="J19" s="1">
+        <v>17</v>
+      </c>
+      <c r="K19" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="1">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1">
+        <v>18</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1017</v>
+      </c>
+      <c r="J20" s="1">
+        <v>18</v>
+      </c>
+      <c r="K20" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="9"/>
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="1">
+        <v>18</v>
+      </c>
+      <c r="H21" s="1">
+        <v>19</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1018</v>
+      </c>
+      <c r="J21" s="1">
+        <v>19</v>
+      </c>
+      <c r="K21" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="9"/>
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="1">
+        <v>19</v>
+      </c>
+      <c r="H22" s="1">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1019</v>
+      </c>
+      <c r="J22" s="1">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="1">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1">
+        <v>21</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1020</v>
+      </c>
+      <c r="J23" s="1">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="1">
+        <v>21</v>
+      </c>
+      <c r="H24" s="1">
+        <v>22</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1021</v>
+      </c>
+      <c r="J24" s="1">
+        <v>22</v>
+      </c>
+      <c r="K24" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="9"/>
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="1">
+        <v>22</v>
+      </c>
+      <c r="H25" s="1">
+        <v>23</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1022</v>
+      </c>
+      <c r="J25" s="1">
+        <v>23</v>
+      </c>
+      <c r="K25" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="1">
+        <v>23</v>
+      </c>
+      <c r="H26" s="1">
+        <v>24</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1023</v>
+      </c>
+      <c r="J26" s="1">
+        <v>24</v>
+      </c>
+      <c r="K26" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="9"/>
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="1">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1">
+        <v>25</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1024</v>
+      </c>
+      <c r="J27" s="1">
+        <v>25</v>
+      </c>
+      <c r="K27" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="9"/>
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="1">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1">
+        <v>26</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1025</v>
+      </c>
+      <c r="J28" s="1">
+        <v>26</v>
+      </c>
+      <c r="K28" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="9"/>
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="1">
+        <v>26</v>
+      </c>
+      <c r="H29" s="1">
+        <v>27</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1026</v>
+      </c>
+      <c r="J29" s="1">
+        <v>27</v>
+      </c>
+      <c r="K29" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="9"/>
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="1">
+        <v>27</v>
+      </c>
+      <c r="H30" s="1">
+        <v>28</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1027</v>
+      </c>
+      <c r="J30" s="1">
+        <v>28</v>
+      </c>
+      <c r="K30" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="9"/>
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="1">
+        <v>28</v>
+      </c>
+      <c r="H31" s="1">
+        <v>29</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1028</v>
+      </c>
+      <c r="J31" s="1">
+        <v>29</v>
+      </c>
+      <c r="K31" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="9"/>
+      <c r="B32" s="1">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="1">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1">
+        <v>30</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1029</v>
+      </c>
+      <c r="J32" s="1">
+        <v>30</v>
+      </c>
+      <c r="K32" s="1">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="9"/>
+      <c r="B33" s="1">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="1">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1">
+        <v>31</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1030</v>
+      </c>
+      <c r="J33" s="1">
+        <v>31</v>
+      </c>
+      <c r="K33" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="9"/>
+      <c r="B34" s="1">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="1">
+        <v>31</v>
+      </c>
+      <c r="H34" s="1">
+        <v>32</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1031</v>
+      </c>
+      <c r="J34" s="1">
+        <v>32</v>
+      </c>
+      <c r="K34" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="9"/>
+      <c r="B35" s="1">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="1">
+        <v>32</v>
+      </c>
+      <c r="H35" s="1">
+        <v>33</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1032</v>
+      </c>
+      <c r="J35" s="1">
+        <v>33</v>
+      </c>
+      <c r="K35" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="9"/>
+      <c r="B36" s="1">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="1">
+        <v>33</v>
+      </c>
+      <c r="H36" s="1">
+        <v>34</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1033</v>
+      </c>
+      <c r="J36" s="1">
+        <v>34</v>
+      </c>
+      <c r="K36" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="9"/>
+      <c r="B37" s="1">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="1">
+        <v>34</v>
+      </c>
+      <c r="H37" s="1">
+        <v>35</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1034</v>
+      </c>
+      <c r="J37" s="1">
+        <v>35</v>
+      </c>
+      <c r="K37" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="9"/>
+      <c r="B38" s="1">
+        <v>35</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="1">
+        <v>35</v>
+      </c>
+      <c r="H38" s="1">
+        <v>36</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1035</v>
+      </c>
+      <c r="J38" s="1">
+        <v>36</v>
+      </c>
+      <c r="K38" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="9"/>
+      <c r="B39" s="1">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="1">
+        <v>36</v>
+      </c>
+      <c r="H39" s="1">
+        <v>37</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1036</v>
+      </c>
+      <c r="J39" s="1">
+        <v>37</v>
+      </c>
+      <c r="K39" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="9"/>
+      <c r="B40" s="1">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="1">
+        <v>37</v>
+      </c>
+      <c r="H40" s="1">
+        <v>38</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1037</v>
+      </c>
+      <c r="J40" s="1">
+        <v>38</v>
+      </c>
+      <c r="K40" s="1">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="9"/>
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="1">
+        <v>38</v>
+      </c>
+      <c r="H41" s="1">
+        <v>39</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1038</v>
+      </c>
+      <c r="J41" s="1">
+        <v>39</v>
+      </c>
+      <c r="K41" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="9"/>
+      <c r="B42" s="1">
+        <v>39</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="1">
+        <v>39</v>
+      </c>
+      <c r="H42" s="1">
+        <v>40</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1039</v>
+      </c>
+      <c r="J42" s="1">
+        <v>40</v>
+      </c>
+      <c r="K42" s="1">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="9"/>
+      <c r="B43" s="1">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="1">
+        <v>40</v>
+      </c>
+      <c r="H43" s="1">
+        <v>41</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1040</v>
+      </c>
+      <c r="J43" s="1">
+        <v>41</v>
+      </c>
+      <c r="K43" s="1">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="9"/>
+      <c r="B44" s="1">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="1">
+        <v>41</v>
+      </c>
+      <c r="H44" s="1">
+        <v>42</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1041</v>
+      </c>
+      <c r="J44" s="1">
+        <v>42</v>
+      </c>
+      <c r="K44" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="9"/>
+      <c r="B45" s="1">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="1">
+        <v>42</v>
+      </c>
+      <c r="H45" s="1">
+        <v>43</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1042</v>
+      </c>
+      <c r="J45" s="1">
+        <v>43</v>
+      </c>
+      <c r="K45" s="1">
+        <v>44</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="9"/>
+      <c r="B46" s="1">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="1">
+        <v>43</v>
+      </c>
+      <c r="H46" s="1">
+        <v>44</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1043</v>
+      </c>
+      <c r="J46" s="1">
+        <v>44</v>
+      </c>
+      <c r="K46" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="9"/>
+      <c r="B47" s="1">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" s="1">
+        <v>44</v>
+      </c>
+      <c r="H47" s="1">
+        <v>45</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1044</v>
+      </c>
+      <c r="J47" s="1">
+        <v>45</v>
+      </c>
+      <c r="K47" s="1">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="9"/>
+      <c r="B48" s="1">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="1">
+        <v>45</v>
+      </c>
+      <c r="H48" s="1">
+        <v>46</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1045</v>
+      </c>
+      <c r="J48" s="1">
+        <v>46</v>
+      </c>
+      <c r="K48" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="9"/>
+      <c r="B49" s="1">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" s="1">
+        <v>46</v>
+      </c>
+      <c r="H49" s="1">
+        <v>47</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1046</v>
+      </c>
+      <c r="J49" s="1">
+        <v>47</v>
+      </c>
+      <c r="K49" s="1">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="9"/>
+      <c r="B50" s="1">
+        <v>47</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="1">
+        <v>47</v>
+      </c>
+      <c r="H50" s="1">
+        <v>48</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1047</v>
+      </c>
+      <c r="J50" s="1">
+        <v>48</v>
+      </c>
+      <c r="K50" s="1">
+        <v>49</v>
+      </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="9"/>
+      <c r="B51" s="1">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="1">
+        <v>48</v>
+      </c>
+      <c r="H51" s="1">
+        <v>49</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1048</v>
+      </c>
+      <c r="J51" s="1">
+        <v>49</v>
+      </c>
+      <c r="K51" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="9"/>
+      <c r="B52" s="1">
+        <v>49</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" s="1">
+        <v>49</v>
+      </c>
+      <c r="H52" s="1">
+        <v>50</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1049</v>
+      </c>
+      <c r="J52" s="1">
+        <v>50</v>
+      </c>
+      <c r="K52" s="1">
+        <v>51</v>
+      </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="9"/>
+      <c r="B53" s="1">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" s="1">
+        <v>50</v>
+      </c>
+      <c r="H53" s="1">
+        <v>51</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1050</v>
+      </c>
+      <c r="J53" s="1">
+        <v>51</v>
+      </c>
+      <c r="K53" s="1">
+        <v>52</v>
+      </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="9"/>
+      <c r="B54" s="1">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" s="1">
+        <v>51</v>
+      </c>
+      <c r="H54" s="1">
+        <v>52</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1051</v>
+      </c>
+      <c r="J54" s="1">
+        <v>52</v>
+      </c>
+      <c r="K54" s="1">
+        <v>53</v>
+      </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="9"/>
+      <c r="B55" s="1">
+        <v>52</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" s="1">
+        <v>52</v>
+      </c>
+      <c r="H55" s="1">
+        <v>53</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1052</v>
+      </c>
+      <c r="J55" s="1">
+        <v>53</v>
+      </c>
+      <c r="K55" s="1">
+        <v>54</v>
+      </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="9"/>
+      <c r="B56" s="1">
+        <v>53</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" s="1">
+        <v>53</v>
+      </c>
+      <c r="H56" s="1">
+        <v>54</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1053</v>
+      </c>
+      <c r="J56" s="1">
+        <v>54</v>
+      </c>
+      <c r="K56" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="9"/>
+      <c r="B57" s="1">
+        <v>54</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G57" s="1">
+        <v>54</v>
+      </c>
+      <c r="H57" s="1">
+        <v>55</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1054</v>
+      </c>
+      <c r="J57" s="1">
+        <v>55</v>
+      </c>
+      <c r="K57" s="1">
+        <v>56</v>
+      </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="9"/>
+      <c r="B58" s="1">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G58" s="1">
+        <v>55</v>
+      </c>
+      <c r="H58" s="1">
+        <v>56</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1055</v>
+      </c>
+      <c r="J58" s="1">
+        <v>56</v>
+      </c>
+      <c r="K58" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1">
+        <v>56</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" s="1">
+        <v>56</v>
+      </c>
+      <c r="H59" s="1">
+        <v>57</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1056</v>
+      </c>
+      <c r="J59" s="1">
+        <v>57</v>
+      </c>
+      <c r="K59" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60" s="1">
+        <v>57</v>
+      </c>
+      <c r="H60" s="1">
+        <v>58</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1057</v>
+      </c>
+      <c r="J60" s="1">
+        <v>58</v>
+      </c>
+      <c r="K60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" s="1">
+        <v>58</v>
+      </c>
+      <c r="H61" s="1">
+        <v>59</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1058</v>
+      </c>
+      <c r="J61" s="1">
+        <v>59</v>
+      </c>
+      <c r="K61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1">
+        <v>59</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G62" s="1">
+        <v>59</v>
+      </c>
+      <c r="H62" s="1">
+        <v>60</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1059</v>
+      </c>
+      <c r="J62" s="1">
+        <v>60</v>
+      </c>
+      <c r="K62" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1">
+        <v>60</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G63" s="1">
+        <v>60</v>
+      </c>
+      <c r="H63" s="1">
+        <v>61</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1060</v>
+      </c>
+      <c r="J63" s="1">
+        <v>61</v>
+      </c>
+      <c r="K63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1">
+        <v>61</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="1">
+        <v>61</v>
+      </c>
+      <c r="H64" s="1">
+        <v>62</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1061</v>
+      </c>
+      <c r="J64" s="1">
+        <v>62</v>
+      </c>
+      <c r="K64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1">
+        <v>62</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" s="1">
+        <v>62</v>
+      </c>
+      <c r="H65" s="1">
+        <v>63</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1062</v>
+      </c>
+      <c r="J65" s="1">
+        <v>63</v>
+      </c>
+      <c r="K65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1">
+        <v>63</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G66" s="1">
+        <v>63</v>
+      </c>
+      <c r="H66" s="1">
+        <v>64</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1063</v>
+      </c>
+      <c r="J66" s="1">
+        <v>64</v>
+      </c>
+      <c r="K66" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1">
+        <v>64</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G67" s="1">
+        <v>64</v>
+      </c>
+      <c r="H67" s="1">
+        <v>65</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1064</v>
+      </c>
+      <c r="J67" s="1">
+        <v>65</v>
+      </c>
+      <c r="K67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1">
+        <v>65</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" s="1">
+        <v>65</v>
+      </c>
+      <c r="H68" s="1">
+        <v>66</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1065</v>
+      </c>
+      <c r="J68" s="1">
+        <v>66</v>
+      </c>
+      <c r="K68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G69" s="1">
+        <v>66</v>
+      </c>
+      <c r="H69" s="1">
+        <v>67</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1066</v>
+      </c>
+      <c r="J69" s="1">
+        <v>67</v>
+      </c>
+      <c r="K69" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1">
+        <v>67</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G70" s="1">
+        <v>67</v>
+      </c>
+      <c r="H70" s="1">
+        <v>68</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1067</v>
+      </c>
+      <c r="J70" s="1">
+        <v>68</v>
+      </c>
+      <c r="K70" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1">
+        <v>68</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G71" s="1">
+        <v>68</v>
+      </c>
+      <c r="H71" s="1">
+        <v>69</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1068</v>
+      </c>
+      <c r="J71" s="1">
+        <v>69</v>
+      </c>
+      <c r="K71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1">
+        <v>69</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G72" s="1">
+        <v>69</v>
+      </c>
+      <c r="H72" s="1">
+        <v>70</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1069</v>
+      </c>
+      <c r="J72" s="1">
+        <v>70</v>
+      </c>
+      <c r="K72" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1">
+        <v>70</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G73" s="1">
+        <v>70</v>
+      </c>
+      <c r="H73" s="1">
+        <v>71</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1070</v>
+      </c>
+      <c r="J73" s="1">
+        <v>71</v>
+      </c>
+      <c r="K73" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1">
+        <v>71</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G74" s="1">
+        <v>71</v>
+      </c>
+      <c r="H74" s="1">
+        <v>72</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1071</v>
+      </c>
+      <c r="J74" s="1">
+        <v>72</v>
+      </c>
+      <c r="K74" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1">
+        <v>72</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G75" s="1">
+        <v>72</v>
+      </c>
+      <c r="H75" s="1">
+        <v>73</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1072</v>
+      </c>
+      <c r="J75" s="1">
+        <v>73</v>
+      </c>
+      <c r="K75" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1">
+        <v>73</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G76" s="1">
+        <v>73</v>
+      </c>
+      <c r="H76" s="1">
+        <v>74</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1073</v>
+      </c>
+      <c r="J76" s="1">
+        <v>74</v>
+      </c>
+      <c r="K76" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1">
+        <v>74</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G77" s="1">
+        <v>74</v>
+      </c>
+      <c r="H77" s="1">
+        <v>75</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1074</v>
+      </c>
+      <c r="J77" s="1">
+        <v>75</v>
+      </c>
+      <c r="K77" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1">
+        <v>75</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G78" s="1">
+        <v>75</v>
+      </c>
+      <c r="H78" s="1">
+        <v>76</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1075</v>
+      </c>
+      <c r="J78" s="1">
+        <v>76</v>
+      </c>
+      <c r="K78" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1">
+        <v>76</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G79" s="1">
+        <v>76</v>
+      </c>
+      <c r="H79" s="1">
+        <v>77</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1076</v>
+      </c>
+      <c r="J79" s="1">
+        <v>77</v>
+      </c>
+      <c r="K79" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1">
+        <v>77</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80" s="1">
+        <v>77</v>
+      </c>
+      <c r="H80" s="1">
+        <v>78</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1077</v>
+      </c>
+      <c r="J80" s="1">
+        <v>78</v>
+      </c>
+      <c r="K80" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1">
+        <v>78</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G81" s="1">
+        <v>78</v>
+      </c>
+      <c r="H81" s="1">
+        <v>79</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1078</v>
+      </c>
+      <c r="J81" s="1">
+        <v>79</v>
+      </c>
+      <c r="K81" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1">
+        <v>79</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G82" s="1">
+        <v>79</v>
+      </c>
+      <c r="H82" s="1">
+        <v>80</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1079</v>
+      </c>
+      <c r="J82" s="1">
+        <v>80</v>
+      </c>
+      <c r="K82" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1">
+        <v>80</v>
+      </c>
+      <c r="B83" s="1">
+        <v>80</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G83" s="1">
+        <v>80</v>
+      </c>
+      <c r="H83" s="1">
+        <v>81</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1080</v>
+      </c>
+      <c r="J83" s="1">
+        <v>81</v>
+      </c>
+      <c r="K83" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1">
+        <v>81</v>
+      </c>
+      <c r="B84" s="1">
+        <v>81</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G84" s="1">
+        <v>81</v>
+      </c>
+      <c r="H84" s="1">
+        <v>82</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1081</v>
+      </c>
+      <c r="J84" s="1">
+        <v>82</v>
+      </c>
+      <c r="K84" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1">
+        <v>82</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G85" s="1">
+        <v>82</v>
+      </c>
+      <c r="H85" s="1">
+        <v>83</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1082</v>
+      </c>
+      <c r="J85" s="1">
+        <v>83</v>
+      </c>
+      <c r="K85" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1">
+        <v>83</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G86" s="1">
+        <v>83</v>
+      </c>
+      <c r="H86" s="1">
+        <v>84</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1083</v>
+      </c>
+      <c r="J86" s="1">
+        <v>84</v>
+      </c>
+      <c r="K86" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1">
+        <v>84</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G87" s="1">
+        <v>84</v>
+      </c>
+      <c r="H87" s="1">
+        <v>85</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1084</v>
+      </c>
+      <c r="J87" s="1">
+        <v>85</v>
+      </c>
+      <c r="K87" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1">
+        <v>85</v>
+      </c>
+      <c r="B88" s="1">
+        <v>85</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G88" s="1">
+        <v>85</v>
+      </c>
+      <c r="H88" s="1">
+        <v>86</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1085</v>
+      </c>
+      <c r="J88" s="1">
+        <v>86</v>
+      </c>
+      <c r="K88" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1">
+        <v>86</v>
+      </c>
+      <c r="B89" s="1">
+        <v>86</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G89" s="1">
+        <v>86</v>
+      </c>
+      <c r="H89" s="1">
+        <v>87</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1086</v>
+      </c>
+      <c r="J89" s="1">
+        <v>87</v>
+      </c>
+      <c r="K89" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1">
+        <v>87</v>
+      </c>
+      <c r="B90" s="1">
+        <v>87</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G90" s="1">
+        <v>87</v>
+      </c>
+      <c r="H90" s="1">
+        <v>88</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1087</v>
+      </c>
+      <c r="J90" s="1">
+        <v>88</v>
+      </c>
+      <c r="K90" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1">
+        <v>88</v>
+      </c>
+      <c r="B91" s="1">
+        <v>88</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G91" s="1">
+        <v>88</v>
+      </c>
+      <c r="H91" s="1">
+        <v>89</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1088</v>
+      </c>
+      <c r="J91" s="1">
+        <v>89</v>
+      </c>
+      <c r="K91" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1">
+        <v>89</v>
+      </c>
+      <c r="B92" s="1">
+        <v>89</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G92" s="1">
+        <v>89</v>
+      </c>
+      <c r="H92" s="1">
+        <v>90</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1089</v>
+      </c>
+      <c r="J92" s="1">
+        <v>90</v>
+      </c>
+      <c r="K92" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1">
+        <v>90</v>
+      </c>
+      <c r="B93" s="1">
+        <v>90</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G93" s="1">
+        <v>90</v>
+      </c>
+      <c r="H93" s="1">
+        <v>91</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1090</v>
+      </c>
+      <c r="J93" s="1">
+        <v>91</v>
+      </c>
+      <c r="K93" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1">
+        <v>91</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G94" s="1">
+        <v>91</v>
+      </c>
+      <c r="H94" s="1">
+        <v>92</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1091</v>
+      </c>
+      <c r="J94" s="1">
+        <v>92</v>
+      </c>
+      <c r="K94" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1">
+        <v>92</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G95" s="1">
+        <v>92</v>
+      </c>
+      <c r="H95" s="1">
+        <v>93</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1092</v>
+      </c>
+      <c r="J95" s="1">
+        <v>93</v>
+      </c>
+      <c r="K95" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1">
+        <v>93</v>
+      </c>
+      <c r="B96" s="1">
+        <v>93</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G96" s="1">
+        <v>93</v>
+      </c>
+      <c r="H96" s="1">
+        <v>94</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1093</v>
+      </c>
+      <c r="J96" s="1">
+        <v>94</v>
+      </c>
+      <c r="K96" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
+        <v>94</v>
+      </c>
+      <c r="B97" s="1">
+        <v>94</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G97" s="1">
+        <v>94</v>
+      </c>
+      <c r="H97" s="1">
+        <v>95</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1094</v>
+      </c>
+      <c r="J97" s="1">
+        <v>95</v>
+      </c>
+      <c r="K97" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
+        <v>95</v>
+      </c>
+      <c r="B98" s="1">
+        <v>95</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G98" s="1">
+        <v>95</v>
+      </c>
+      <c r="H98" s="1">
+        <v>96</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1095</v>
+      </c>
+      <c r="J98" s="1">
+        <v>96</v>
+      </c>
+      <c r="K98" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1">
+        <v>96</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G99" s="1">
+        <v>96</v>
+      </c>
+      <c r="H99" s="1">
+        <v>97</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1096</v>
+      </c>
+      <c r="J99" s="1">
+        <v>97</v>
+      </c>
+      <c r="K99" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1">
+        <v>97</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G100" s="1">
+        <v>97</v>
+      </c>
+      <c r="H100" s="1">
+        <v>98</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1097</v>
+      </c>
+      <c r="J100" s="1">
+        <v>98</v>
+      </c>
+      <c r="K100" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1">
+        <v>98</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G101" s="1">
+        <v>98</v>
+      </c>
+      <c r="H101" s="1">
+        <v>99</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1098</v>
+      </c>
+      <c r="J101" s="1">
+        <v>99</v>
+      </c>
+      <c r="K101" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1">
+        <v>99</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G102" s="1">
+        <v>99</v>
+      </c>
+      <c r="H102" s="1">
+        <v>100</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1099</v>
+      </c>
+      <c r="J102" s="1">
+        <v>100</v>
+      </c>
+      <c r="K102" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
+        <v>100</v>
+      </c>
+      <c r="B103" s="1">
+        <v>100</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G103" s="1">
+        <v>100</v>
+      </c>
+      <c r="H103" s="1">
+        <v>101</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1100</v>
+      </c>
+      <c r="J103" s="1">
+        <v>101</v>
+      </c>
+      <c r="K103" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
+        <v>101</v>
+      </c>
+      <c r="B104" s="1">
+        <v>101</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G104" s="1">
+        <v>101</v>
+      </c>
+      <c r="H104" s="1">
+        <v>102</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1101</v>
+      </c>
+      <c r="J104" s="1">
+        <v>102</v>
+      </c>
+      <c r="K104" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
+        <v>102</v>
+      </c>
+      <c r="B105" s="1">
+        <v>102</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G105" s="1">
+        <v>102</v>
+      </c>
+      <c r="H105" s="1">
+        <v>103</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1102</v>
+      </c>
+      <c r="J105" s="1">
+        <v>103</v>
+      </c>
+      <c r="K105" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
+        <v>103</v>
+      </c>
+      <c r="B106" s="1">
+        <v>103</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G106" s="1">
+        <v>103</v>
+      </c>
+      <c r="H106" s="1">
+        <v>104</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1103</v>
+      </c>
+      <c r="J106" s="1">
+        <v>104</v>
+      </c>
+      <c r="K106" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
+        <v>104</v>
+      </c>
+      <c r="B107" s="1">
+        <v>104</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G107" s="1">
+        <v>104</v>
+      </c>
+      <c r="H107" s="1">
+        <v>105</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1104</v>
+      </c>
+      <c r="J107" s="1">
+        <v>105</v>
+      </c>
+      <c r="K107" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
+        <v>105</v>
+      </c>
+      <c r="B108" s="1">
+        <v>105</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G108" s="1">
+        <v>105</v>
+      </c>
+      <c r="H108" s="1">
+        <v>106</v>
+      </c>
+      <c r="I108" s="1">
+        <v>1105</v>
+      </c>
+      <c r="J108" s="1">
+        <v>106</v>
+      </c>
+      <c r="K108" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
+        <v>106</v>
+      </c>
+      <c r="B109" s="1">
+        <v>106</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G109" s="1">
+        <v>106</v>
+      </c>
+      <c r="H109" s="1">
+        <v>107</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1106</v>
+      </c>
+      <c r="J109" s="1">
+        <v>107</v>
+      </c>
+      <c r="K109" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
+        <v>107</v>
+      </c>
+      <c r="B110" s="1">
+        <v>107</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G110" s="1">
+        <v>107</v>
+      </c>
+      <c r="H110" s="1">
+        <v>108</v>
+      </c>
+      <c r="I110" s="1">
+        <v>1107</v>
+      </c>
+      <c r="J110" s="1">
+        <v>108</v>
+      </c>
+      <c r="K110" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>108</v>
+      </c>
+      <c r="B111" s="1">
+        <v>108</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G111" s="1">
+        <v>108</v>
+      </c>
+      <c r="H111" s="1">
+        <v>109</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1108</v>
+      </c>
+      <c r="J111" s="1">
+        <v>109</v>
+      </c>
+      <c r="K111" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
+        <v>109</v>
+      </c>
+      <c r="B112" s="1">
+        <v>109</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G112" s="1">
+        <v>109</v>
+      </c>
+      <c r="H112" s="1">
+        <v>110</v>
+      </c>
+      <c r="I112" s="1">
+        <v>1109</v>
+      </c>
+      <c r="J112" s="1">
+        <v>110</v>
+      </c>
+      <c r="K112" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
+        <v>110</v>
+      </c>
+      <c r="B113" s="1">
+        <v>110</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G113" s="1">
+        <v>110</v>
+      </c>
+      <c r="H113" s="1">
+        <v>111</v>
+      </c>
+      <c r="I113" s="1">
+        <v>1110</v>
+      </c>
+      <c r="J113" s="1">
+        <v>111</v>
+      </c>
+      <c r="K113" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
+        <v>111</v>
+      </c>
+      <c r="B114" s="1">
+        <v>111</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G114" s="1">
+        <v>111</v>
+      </c>
+      <c r="H114" s="1">
+        <v>112</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1111</v>
+      </c>
+      <c r="J114" s="1">
+        <v>112</v>
+      </c>
+      <c r="K114" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
+        <v>112</v>
+      </c>
+      <c r="B115" s="1">
+        <v>112</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G115" s="1">
+        <v>112</v>
+      </c>
+      <c r="H115" s="1">
+        <v>113</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1112</v>
+      </c>
+      <c r="J115" s="1">
+        <v>113</v>
+      </c>
+      <c r="K115" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
+        <v>113</v>
+      </c>
+      <c r="B116" s="1">
+        <v>113</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G116" s="1">
+        <v>113</v>
+      </c>
+      <c r="H116" s="1">
+        <v>114</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1113</v>
+      </c>
+      <c r="J116" s="1">
+        <v>114</v>
+      </c>
+      <c r="K116" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1">
+        <v>114</v>
+      </c>
+      <c r="B117" s="1">
+        <v>114</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G117" s="1">
+        <v>114</v>
+      </c>
+      <c r="H117" s="1">
+        <v>115</v>
+      </c>
+      <c r="I117" s="1">
+        <v>1114</v>
+      </c>
+      <c r="J117" s="1">
+        <v>115</v>
+      </c>
+      <c r="K117" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1">
+        <v>115</v>
+      </c>
+      <c r="B118" s="1">
+        <v>115</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G118" s="1">
+        <v>115</v>
+      </c>
+      <c r="H118" s="1">
+        <v>116</v>
+      </c>
+      <c r="I118" s="1">
+        <v>1115</v>
+      </c>
+      <c r="J118" s="1">
+        <v>116</v>
+      </c>
+      <c r="K118" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1">
+        <v>116</v>
+      </c>
+      <c r="B119" s="1">
+        <v>116</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G119" s="1">
+        <v>116</v>
+      </c>
+      <c r="H119" s="1">
+        <v>117</v>
+      </c>
+      <c r="I119" s="1">
+        <v>1116</v>
+      </c>
+      <c r="J119" s="1">
+        <v>117</v>
+      </c>
+      <c r="K119" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
+        <v>117</v>
+      </c>
+      <c r="B120" s="1">
+        <v>117</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G120" s="1">
+        <v>117</v>
+      </c>
+      <c r="H120" s="1">
+        <v>118</v>
+      </c>
+      <c r="I120" s="1">
+        <v>1117</v>
+      </c>
+      <c r="J120" s="1">
+        <v>118</v>
+      </c>
+      <c r="K120" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
+        <v>118</v>
+      </c>
+      <c r="B121" s="1">
+        <v>118</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G121" s="1">
+        <v>118</v>
+      </c>
+      <c r="H121" s="1">
+        <v>119</v>
+      </c>
+      <c r="I121" s="1">
+        <v>1118</v>
+      </c>
+      <c r="J121" s="1">
+        <v>119</v>
+      </c>
+      <c r="K121" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>119</v>
+      </c>
+      <c r="B122" s="1">
+        <v>119</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G122" s="1">
+        <v>119</v>
+      </c>
+      <c r="H122" s="1">
+        <v>120</v>
+      </c>
+      <c r="I122" s="1">
+        <v>1119</v>
+      </c>
+      <c r="J122" s="1">
+        <v>120</v>
+      </c>
+      <c r="K122" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
+        <v>120</v>
+      </c>
+      <c r="B123" s="1">
+        <v>120</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G123" s="1">
+        <v>120</v>
+      </c>
+      <c r="H123" s="1">
+        <v>121</v>
+      </c>
+      <c r="I123" s="1">
+        <v>1120</v>
+      </c>
+      <c r="J123" s="1">
+        <v>121</v>
+      </c>
+      <c r="K123" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
+        <v>121</v>
+      </c>
+      <c r="B124" s="1">
+        <v>121</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G124" s="1">
+        <v>121</v>
+      </c>
+      <c r="H124" s="1">
+        <v>122</v>
+      </c>
+      <c r="I124" s="1">
+        <v>1121</v>
+      </c>
+      <c r="J124" s="1">
+        <v>122</v>
+      </c>
+      <c r="K124" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
+        <v>122</v>
+      </c>
+      <c r="B125" s="1">
+        <v>122</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G125" s="1">
+        <v>122</v>
+      </c>
+      <c r="H125" s="1">
+        <v>123</v>
+      </c>
+      <c r="I125" s="1">
+        <v>1122</v>
+      </c>
+      <c r="J125" s="1">
+        <v>123</v>
+      </c>
+      <c r="K125" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
+        <v>123</v>
+      </c>
+      <c r="B126" s="1">
+        <v>123</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G126" s="1">
+        <v>123</v>
+      </c>
+      <c r="H126" s="1">
+        <v>124</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1123</v>
+      </c>
+      <c r="J126" s="1">
+        <v>124</v>
+      </c>
+      <c r="K126" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
+        <v>124</v>
+      </c>
+      <c r="B127" s="1">
+        <v>124</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G127" s="1">
+        <v>124</v>
+      </c>
+      <c r="H127" s="1">
+        <v>125</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1124</v>
+      </c>
+      <c r="J127" s="1">
+        <v>125</v>
+      </c>
+      <c r="K127" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
+        <v>125</v>
+      </c>
+      <c r="B128" s="1">
+        <v>125</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G128" s="1">
+        <v>125</v>
+      </c>
+      <c r="H128" s="1">
+        <v>126</v>
+      </c>
+      <c r="I128" s="1">
+        <v>1125</v>
+      </c>
+      <c r="J128" s="1">
+        <v>126</v>
+      </c>
+      <c r="K128" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1">
+        <v>126</v>
+      </c>
+      <c r="B129" s="1">
+        <v>126</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G129" s="1">
+        <v>126</v>
+      </c>
+      <c r="H129" s="1">
+        <v>127</v>
+      </c>
+      <c r="I129" s="1">
+        <v>1126</v>
+      </c>
+      <c r="J129" s="1">
+        <v>127</v>
+      </c>
+      <c r="K129" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1">
+        <v>127</v>
+      </c>
+      <c r="B130" s="1">
+        <v>127</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G130" s="1">
+        <v>127</v>
+      </c>
+      <c r="H130" s="1">
+        <v>128</v>
+      </c>
+      <c r="I130" s="1">
+        <v>1127</v>
+      </c>
+      <c r="J130" s="1">
+        <v>128</v>
+      </c>
+      <c r="K130" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
+        <v>128</v>
+      </c>
+      <c r="B131" s="1">
+        <v>128</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G131" s="1">
+        <v>128</v>
+      </c>
+      <c r="H131" s="1">
+        <v>129</v>
+      </c>
+      <c r="I131" s="1">
+        <v>1128</v>
+      </c>
+      <c r="J131" s="1">
+        <v>129</v>
+      </c>
+      <c r="K131" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
+        <v>129</v>
+      </c>
+      <c r="B132" s="1">
+        <v>129</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G132" s="1">
+        <v>129</v>
+      </c>
+      <c r="H132" s="1">
+        <v>130</v>
+      </c>
+      <c r="I132" s="1">
+        <v>1129</v>
+      </c>
+      <c r="J132" s="1">
+        <v>130</v>
+      </c>
+      <c r="K132" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
+        <v>130</v>
+      </c>
+      <c r="B133" s="1">
+        <v>130</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G133" s="1">
+        <v>130</v>
+      </c>
+      <c r="H133" s="1">
+        <v>131</v>
+      </c>
+      <c r="I133" s="1">
+        <v>1130</v>
+      </c>
+      <c r="J133" s="1">
+        <v>131</v>
+      </c>
+      <c r="K133" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
+        <v>131</v>
+      </c>
+      <c r="B134" s="1">
+        <v>131</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G134" s="1">
+        <v>131</v>
+      </c>
+      <c r="H134" s="1">
+        <v>132</v>
+      </c>
+      <c r="I134" s="1">
+        <v>1131</v>
+      </c>
+      <c r="J134" s="1">
+        <v>132</v>
+      </c>
+      <c r="K134" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1">
+        <v>132</v>
+      </c>
+      <c r="B135" s="1">
+        <v>132</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G135" s="1">
+        <v>132</v>
+      </c>
+      <c r="H135" s="1">
+        <v>133</v>
+      </c>
+      <c r="I135" s="1">
+        <v>1132</v>
+      </c>
+      <c r="J135" s="1">
+        <v>133</v>
+      </c>
+      <c r="K135" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1">
+        <v>133</v>
+      </c>
+      <c r="B136" s="1">
+        <v>133</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G136" s="1">
+        <v>133</v>
+      </c>
+      <c r="H136" s="1">
+        <v>134</v>
+      </c>
+      <c r="I136" s="1">
+        <v>1133</v>
+      </c>
+      <c r="J136" s="1">
+        <v>134</v>
+      </c>
+      <c r="K136" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1">
+        <v>134</v>
+      </c>
+      <c r="B137" s="1">
+        <v>134</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G137" s="1">
+        <v>134</v>
+      </c>
+      <c r="H137" s="1">
+        <v>135</v>
+      </c>
+      <c r="I137" s="1">
+        <v>1134</v>
+      </c>
+      <c r="J137" s="1">
+        <v>135</v>
+      </c>
+      <c r="K137" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1">
+        <v>135</v>
+      </c>
+      <c r="B138" s="1">
+        <v>135</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G138" s="1">
+        <v>135</v>
+      </c>
+      <c r="H138" s="1">
+        <v>136</v>
+      </c>
+      <c r="I138" s="1">
+        <v>1135</v>
+      </c>
+      <c r="J138" s="1">
+        <v>136</v>
+      </c>
+      <c r="K138" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1">
+        <v>136</v>
+      </c>
+      <c r="B139" s="1">
+        <v>136</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G139" s="1">
+        <v>136</v>
+      </c>
+      <c r="H139" s="1">
+        <v>137</v>
+      </c>
+      <c r="I139" s="1">
+        <v>1136</v>
+      </c>
+      <c r="J139" s="1">
+        <v>137</v>
+      </c>
+      <c r="K139" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1">
+        <v>137</v>
+      </c>
+      <c r="B140" s="1">
+        <v>137</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G140" s="1">
+        <v>137</v>
+      </c>
+      <c r="H140" s="1">
+        <v>138</v>
+      </c>
+      <c r="I140" s="1">
+        <v>1137</v>
+      </c>
+      <c r="J140" s="1">
+        <v>138</v>
+      </c>
+      <c r="K140" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1">
+        <v>138</v>
+      </c>
+      <c r="B141" s="1">
+        <v>138</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G141" s="1">
+        <v>138</v>
+      </c>
+      <c r="H141" s="1">
+        <v>139</v>
+      </c>
+      <c r="I141" s="1">
+        <v>1138</v>
+      </c>
+      <c r="J141" s="1">
+        <v>139</v>
+      </c>
+      <c r="K141" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1">
+        <v>139</v>
+      </c>
+      <c r="B142" s="1">
+        <v>139</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G142" s="1">
+        <v>139</v>
+      </c>
+      <c r="H142" s="1">
+        <v>140</v>
+      </c>
+      <c r="I142" s="1">
+        <v>1139</v>
+      </c>
+      <c r="J142" s="1">
+        <v>140</v>
+      </c>
+      <c r="K142" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1">
+        <v>140</v>
+      </c>
+      <c r="B143" s="1">
+        <v>140</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G143" s="1">
+        <v>140</v>
+      </c>
+      <c r="H143" s="1">
+        <v>141</v>
+      </c>
+      <c r="I143" s="1">
+        <v>1140</v>
+      </c>
+      <c r="J143" s="1">
+        <v>141</v>
+      </c>
+      <c r="K143" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1">
+        <v>141</v>
+      </c>
+      <c r="B144" s="1">
+        <v>141</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G144" s="1">
+        <v>141</v>
+      </c>
+      <c r="H144" s="1">
+        <v>142</v>
+      </c>
+      <c r="I144" s="1">
+        <v>1141</v>
+      </c>
+      <c r="J144" s="1">
+        <v>142</v>
+      </c>
+      <c r="K144" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1">
+        <v>142</v>
+      </c>
+      <c r="B145" s="1">
+        <v>142</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G145" s="1">
+        <v>142</v>
+      </c>
+      <c r="H145" s="1">
+        <v>143</v>
+      </c>
+      <c r="I145" s="1">
+        <v>1142</v>
+      </c>
+      <c r="J145" s="1">
+        <v>143</v>
+      </c>
+      <c r="K145" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1">
+        <v>143</v>
+      </c>
+      <c r="B146" s="1">
+        <v>143</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G146" s="1">
+        <v>143</v>
+      </c>
+      <c r="H146" s="1">
+        <v>144</v>
+      </c>
+      <c r="I146" s="1">
+        <v>1143</v>
+      </c>
+      <c r="J146" s="1">
+        <v>144</v>
+      </c>
+      <c r="K146" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1">
+        <v>144</v>
+      </c>
+      <c r="B147" s="1">
+        <v>144</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G147" s="1">
+        <v>144</v>
+      </c>
+      <c r="H147" s="1">
+        <v>145</v>
+      </c>
+      <c r="I147" s="1">
+        <v>1144</v>
+      </c>
+      <c r="J147" s="1">
+        <v>145</v>
+      </c>
+      <c r="K147" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1">
+        <v>145</v>
+      </c>
+      <c r="B148" s="1">
+        <v>145</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G148" s="1">
+        <v>145</v>
+      </c>
+      <c r="H148" s="1">
+        <v>146</v>
+      </c>
+      <c r="I148" s="1">
+        <v>1145</v>
+      </c>
+      <c r="J148" s="1">
+        <v>146</v>
+      </c>
+      <c r="K148" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1">
+        <v>146</v>
+      </c>
+      <c r="B149" s="1">
+        <v>146</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G149" s="1">
+        <v>146</v>
+      </c>
+      <c r="H149" s="1">
+        <v>147</v>
+      </c>
+      <c r="I149" s="1">
+        <v>1146</v>
+      </c>
+      <c r="J149" s="1">
+        <v>147</v>
+      </c>
+      <c r="K149" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="1">
+        <v>147</v>
+      </c>
+      <c r="B150" s="1">
+        <v>147</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G150" s="1">
+        <v>147</v>
+      </c>
+      <c r="H150" s="1">
+        <v>148</v>
+      </c>
+      <c r="I150" s="1">
+        <v>1147</v>
+      </c>
+      <c r="J150" s="1">
+        <v>148</v>
+      </c>
+      <c r="K150" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="1">
+        <v>148</v>
+      </c>
+      <c r="B151" s="1">
+        <v>148</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G151" s="1">
+        <v>148</v>
+      </c>
+      <c r="H151" s="1">
+        <v>149</v>
+      </c>
+      <c r="I151" s="1">
+        <v>1148</v>
+      </c>
+      <c r="J151" s="1">
+        <v>149</v>
+      </c>
+      <c r="K151" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="1">
+        <v>149</v>
+      </c>
+      <c r="B152" s="1">
+        <v>149</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G152" s="1">
+        <v>149</v>
+      </c>
+      <c r="H152" s="1">
+        <v>150</v>
+      </c>
+      <c r="I152" s="1">
+        <v>1149</v>
+      </c>
+      <c r="J152" s="1">
+        <v>150</v>
+      </c>
+      <c r="K152" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="1">
+        <v>150</v>
+      </c>
+      <c r="B153" s="1">
+        <v>150</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G153" s="1">
+        <v>150</v>
+      </c>
+      <c r="H153" s="1">
+        <v>151</v>
+      </c>
+      <c r="I153" s="1">
+        <v>1150</v>
+      </c>
+      <c r="J153" s="1">
+        <v>151</v>
+      </c>
+      <c r="K153" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="1">
+        <v>151</v>
+      </c>
+      <c r="B154" s="1">
+        <v>151</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G154" s="1">
+        <v>151</v>
+      </c>
+      <c r="H154" s="1">
+        <v>152</v>
+      </c>
+      <c r="I154" s="1">
+        <v>1151</v>
+      </c>
+      <c r="J154" s="1">
+        <v>152</v>
+      </c>
+      <c r="K154" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="1">
+        <v>152</v>
+      </c>
+      <c r="B155" s="1">
+        <v>152</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G155" s="1">
+        <v>152</v>
+      </c>
+      <c r="H155" s="1">
+        <v>153</v>
+      </c>
+      <c r="I155" s="1">
+        <v>1152</v>
+      </c>
+      <c r="J155" s="1">
+        <v>153</v>
+      </c>
+      <c r="K155" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="1">
+        <v>153</v>
+      </c>
+      <c r="B156" s="1">
+        <v>153</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G156" s="1">
+        <v>153</v>
+      </c>
+      <c r="H156" s="1">
+        <v>154</v>
+      </c>
+      <c r="I156" s="1">
+        <v>1153</v>
+      </c>
+      <c r="J156" s="1">
+        <v>154</v>
+      </c>
+      <c r="K156" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="1">
+        <v>154</v>
+      </c>
+      <c r="B157" s="1">
+        <v>154</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G157" s="1">
+        <v>154</v>
+      </c>
+      <c r="H157" s="1">
+        <v>155</v>
+      </c>
+      <c r="I157" s="1">
+        <v>1154</v>
+      </c>
+      <c r="J157" s="1">
+        <v>155</v>
+      </c>
+      <c r="K157" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="1">
+        <v>155</v>
+      </c>
+      <c r="B158" s="1">
+        <v>155</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G158" s="1">
+        <v>155</v>
+      </c>
+      <c r="H158" s="1">
+        <v>156</v>
+      </c>
+      <c r="I158" s="1">
+        <v>1155</v>
+      </c>
+      <c r="J158" s="1">
+        <v>156</v>
+      </c>
+      <c r="K158" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="1">
+        <v>156</v>
+      </c>
+      <c r="B159" s="1">
+        <v>156</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G159" s="1">
+        <v>156</v>
+      </c>
+      <c r="H159" s="1">
+        <v>157</v>
+      </c>
+      <c r="I159" s="1">
+        <v>1156</v>
+      </c>
+      <c r="J159" s="1">
+        <v>157</v>
+      </c>
+      <c r="K159" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="1">
+        <v>157</v>
+      </c>
+      <c r="B160" s="1">
+        <v>157</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G160" s="1">
+        <v>157</v>
+      </c>
+      <c r="H160" s="1">
+        <v>158</v>
+      </c>
+      <c r="I160" s="1">
+        <v>1157</v>
+      </c>
+      <c r="J160" s="1">
+        <v>158</v>
+      </c>
+      <c r="K160" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="1">
+        <v>158</v>
+      </c>
+      <c r="B161" s="1">
+        <v>158</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G161" s="1">
+        <v>158</v>
+      </c>
+      <c r="H161" s="1">
+        <v>159</v>
+      </c>
+      <c r="I161" s="1">
+        <v>1158</v>
+      </c>
+      <c r="J161" s="1">
+        <v>159</v>
+      </c>
+      <c r="K161" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="1">
+        <v>159</v>
+      </c>
+      <c r="B162" s="1">
+        <v>159</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G162" s="1">
+        <v>159</v>
+      </c>
+      <c r="H162" s="1">
+        <v>160</v>
+      </c>
+      <c r="I162" s="1">
+        <v>1159</v>
+      </c>
+      <c r="J162" s="1">
+        <v>160</v>
+      </c>
+      <c r="K162" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="1">
+        <v>160</v>
+      </c>
+      <c r="B163" s="1">
+        <v>160</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G163" s="1">
+        <v>160</v>
+      </c>
+      <c r="H163" s="1">
+        <v>161</v>
+      </c>
+      <c r="I163" s="1">
+        <v>1160</v>
+      </c>
+      <c r="J163" s="1">
+        <v>161</v>
+      </c>
+      <c r="K163" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="1">
+        <v>161</v>
+      </c>
+      <c r="B164" s="1">
+        <v>161</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G164" s="1">
+        <v>161</v>
+      </c>
+      <c r="H164" s="1">
+        <v>162</v>
+      </c>
+      <c r="I164" s="1">
+        <v>1161</v>
+      </c>
+      <c r="J164" s="1">
+        <v>162</v>
+      </c>
+      <c r="K164" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="1">
+        <v>162</v>
+      </c>
+      <c r="B165" s="1">
+        <v>162</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G165" s="1">
+        <v>162</v>
+      </c>
+      <c r="H165" s="1">
+        <v>163</v>
+      </c>
+      <c r="I165" s="1">
+        <v>1162</v>
+      </c>
+      <c r="J165" s="1">
+        <v>163</v>
+      </c>
+      <c r="K165" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="1">
+        <v>163</v>
+      </c>
+      <c r="B166" s="1">
+        <v>163</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G166" s="1">
+        <v>163</v>
+      </c>
+      <c r="H166" s="1">
+        <v>164</v>
+      </c>
+      <c r="I166" s="1">
+        <v>1163</v>
+      </c>
+      <c r="J166" s="1">
+        <v>164</v>
+      </c>
+      <c r="K166" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="1">
+        <v>164</v>
+      </c>
+      <c r="B167" s="1">
+        <v>164</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G167" s="1">
+        <v>164</v>
+      </c>
+      <c r="H167" s="1">
+        <v>165</v>
+      </c>
+      <c r="I167" s="1">
+        <v>1164</v>
+      </c>
+      <c r="J167" s="1">
+        <v>165</v>
+      </c>
+      <c r="K167" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="1">
+        <v>165</v>
+      </c>
+      <c r="B168" s="1">
+        <v>165</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G168" s="1">
+        <v>165</v>
+      </c>
+      <c r="H168" s="1">
+        <v>166</v>
+      </c>
+      <c r="I168" s="1">
+        <v>1165</v>
+      </c>
+      <c r="J168" s="1">
+        <v>166</v>
+      </c>
+      <c r="K168" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="1">
+        <v>166</v>
+      </c>
+      <c r="B169" s="1">
+        <v>166</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G169" s="1">
+        <v>166</v>
+      </c>
+      <c r="H169" s="1">
+        <v>167</v>
+      </c>
+      <c r="I169" s="1">
+        <v>1166</v>
+      </c>
+      <c r="J169" s="1">
+        <v>167</v>
+      </c>
+      <c r="K169" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="1">
+        <v>167</v>
+      </c>
+      <c r="B170" s="1">
+        <v>167</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G170" s="1">
+        <v>167</v>
+      </c>
+      <c r="H170" s="1">
+        <v>168</v>
+      </c>
+      <c r="I170" s="1">
+        <v>1167</v>
+      </c>
+      <c r="J170" s="1">
+        <v>168</v>
+      </c>
+      <c r="K170" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="1">
+        <v>168</v>
+      </c>
+      <c r="B171" s="1">
+        <v>168</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G171" s="1">
+        <v>168</v>
+      </c>
+      <c r="H171" s="1">
+        <v>169</v>
+      </c>
+      <c r="I171" s="1">
+        <v>1168</v>
+      </c>
+      <c r="J171" s="1">
+        <v>169</v>
+      </c>
+      <c r="K171" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="1">
+        <v>169</v>
+      </c>
+      <c r="B172" s="1">
+        <v>169</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G172" s="1">
+        <v>169</v>
+      </c>
+      <c r="H172" s="1">
+        <v>170</v>
+      </c>
+      <c r="I172" s="1">
+        <v>1169</v>
+      </c>
+      <c r="J172" s="1">
+        <v>170</v>
+      </c>
+      <c r="K172" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="1">
+        <v>170</v>
+      </c>
+      <c r="B173" s="1">
+        <v>170</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G173" s="1">
+        <v>170</v>
+      </c>
+      <c r="H173" s="1">
+        <v>171</v>
+      </c>
+      <c r="I173" s="1">
+        <v>1170</v>
+      </c>
+      <c r="J173" s="1">
+        <v>171</v>
+      </c>
+      <c r="K173" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="1">
+        <v>171</v>
+      </c>
+      <c r="B174" s="1">
+        <v>171</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G174" s="1">
+        <v>171</v>
+      </c>
+      <c r="H174" s="1">
+        <v>172</v>
+      </c>
+      <c r="I174" s="1">
+        <v>1171</v>
+      </c>
+      <c r="J174" s="1">
+        <v>172</v>
+      </c>
+      <c r="K174" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="1">
+        <v>172</v>
+      </c>
+      <c r="B175" s="1">
+        <v>172</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G175" s="1">
+        <v>172</v>
+      </c>
+      <c r="H175" s="1">
+        <v>173</v>
+      </c>
+      <c r="I175" s="1">
+        <v>1172</v>
+      </c>
+      <c r="J175" s="1">
+        <v>173</v>
+      </c>
+      <c r="K175" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="1">
+        <v>173</v>
+      </c>
+      <c r="B176" s="1">
+        <v>173</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G176" s="1">
+        <v>173</v>
+      </c>
+      <c r="H176" s="1">
+        <v>174</v>
+      </c>
+      <c r="I176" s="1">
+        <v>1173</v>
+      </c>
+      <c r="J176" s="1">
+        <v>174</v>
+      </c>
+      <c r="K176" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="1">
+        <v>174</v>
+      </c>
+      <c r="B177" s="1">
+        <v>174</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G177" s="1">
+        <v>174</v>
+      </c>
+      <c r="H177" s="1">
+        <v>175</v>
+      </c>
+      <c r="I177" s="1">
+        <v>1174</v>
+      </c>
+      <c r="J177" s="1">
+        <v>175</v>
+      </c>
+      <c r="K177" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="1">
+        <v>175</v>
+      </c>
+      <c r="B178" s="1">
+        <v>175</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G178" s="1">
+        <v>175</v>
+      </c>
+      <c r="H178" s="1">
+        <v>176</v>
+      </c>
+      <c r="I178" s="1">
+        <v>1175</v>
+      </c>
+      <c r="J178" s="1">
+        <v>176</v>
+      </c>
+      <c r="K178" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="1">
+        <v>176</v>
+      </c>
+      <c r="B179" s="1">
+        <v>176</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G179" s="1">
+        <v>176</v>
+      </c>
+      <c r="H179" s="1">
+        <v>177</v>
+      </c>
+      <c r="I179" s="1">
+        <v>1176</v>
+      </c>
+      <c r="J179" s="1">
+        <v>177</v>
+      </c>
+      <c r="K179" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="1">
+        <v>177</v>
+      </c>
+      <c r="B180" s="1">
+        <v>177</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G180" s="1">
+        <v>177</v>
+      </c>
+      <c r="H180" s="1">
+        <v>178</v>
+      </c>
+      <c r="I180" s="1">
+        <v>1177</v>
+      </c>
+      <c r="J180" s="1">
+        <v>178</v>
+      </c>
+      <c r="K180" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="1">
+        <v>178</v>
+      </c>
+      <c r="B181" s="1">
+        <v>178</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G181" s="1">
+        <v>178</v>
+      </c>
+      <c r="H181" s="1">
+        <v>179</v>
+      </c>
+      <c r="I181" s="1">
+        <v>1178</v>
+      </c>
+      <c r="J181" s="1">
+        <v>179</v>
+      </c>
+      <c r="K181" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="1">
+        <v>179</v>
+      </c>
+      <c r="B182" s="1">
+        <v>179</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G182" s="1">
+        <v>179</v>
+      </c>
+      <c r="H182" s="1">
+        <v>180</v>
+      </c>
+      <c r="I182" s="1">
+        <v>1179</v>
+      </c>
+      <c r="J182" s="1">
+        <v>180</v>
+      </c>
+      <c r="K182" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="1">
+        <v>180</v>
+      </c>
+      <c r="B183" s="1">
+        <v>180</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G183" s="1">
+        <v>180</v>
+      </c>
+      <c r="H183" s="1">
+        <v>181</v>
+      </c>
+      <c r="I183" s="1">
+        <v>1180</v>
+      </c>
+      <c r="J183" s="1">
+        <v>181</v>
+      </c>
+      <c r="K183" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="1">
+        <v>181</v>
+      </c>
+      <c r="B184" s="1">
+        <v>181</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G184" s="1">
+        <v>181</v>
+      </c>
+      <c r="H184" s="1">
+        <v>182</v>
+      </c>
+      <c r="I184" s="1">
+        <v>1181</v>
+      </c>
+      <c r="J184" s="1">
+        <v>182</v>
+      </c>
+      <c r="K184" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="1">
+        <v>182</v>
+      </c>
+      <c r="B185" s="1">
+        <v>182</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G185" s="1">
+        <v>182</v>
+      </c>
+      <c r="H185" s="1">
+        <v>183</v>
+      </c>
+      <c r="I185" s="1">
+        <v>1182</v>
+      </c>
+      <c r="J185" s="1">
+        <v>183</v>
+      </c>
+      <c r="K185" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="1">
+        <v>183</v>
+      </c>
+      <c r="B186" s="1">
+        <v>183</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G186" s="1">
+        <v>183</v>
+      </c>
+      <c r="H186" s="1">
+        <v>184</v>
+      </c>
+      <c r="I186" s="1">
+        <v>1183</v>
+      </c>
+      <c r="J186" s="1">
+        <v>184</v>
+      </c>
+      <c r="K186" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="1">
+        <v>184</v>
+      </c>
+      <c r="B187" s="1">
+        <v>184</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G187" s="1">
+        <v>184</v>
+      </c>
+      <c r="H187" s="1">
+        <v>185</v>
+      </c>
+      <c r="I187" s="1">
+        <v>1184</v>
+      </c>
+      <c r="J187" s="1">
+        <v>185</v>
+      </c>
+      <c r="K187" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="1">
+        <v>185</v>
+      </c>
+      <c r="B188" s="1">
+        <v>185</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G188" s="1">
+        <v>185</v>
+      </c>
+      <c r="H188" s="1">
+        <v>186</v>
+      </c>
+      <c r="I188" s="1">
+        <v>1185</v>
+      </c>
+      <c r="J188" s="1">
+        <v>186</v>
+      </c>
+      <c r="K188" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="1">
+        <v>186</v>
+      </c>
+      <c r="B189" s="1">
+        <v>186</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G189" s="1">
+        <v>186</v>
+      </c>
+      <c r="H189" s="1">
+        <v>187</v>
+      </c>
+      <c r="I189" s="1">
+        <v>1186</v>
+      </c>
+      <c r="J189" s="1">
+        <v>187</v>
+      </c>
+      <c r="K189" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="1">
+        <v>187</v>
+      </c>
+      <c r="B190" s="1">
+        <v>187</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G190" s="1">
+        <v>187</v>
+      </c>
+      <c r="H190" s="1">
+        <v>188</v>
+      </c>
+      <c r="I190" s="1">
+        <v>1187</v>
+      </c>
+      <c r="J190" s="1">
+        <v>188</v>
+      </c>
+      <c r="K190" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="1">
+        <v>188</v>
+      </c>
+      <c r="B191" s="1">
+        <v>188</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G191" s="1">
+        <v>188</v>
+      </c>
+      <c r="H191" s="1">
+        <v>189</v>
+      </c>
+      <c r="I191" s="1">
+        <v>1188</v>
+      </c>
+      <c r="J191" s="1">
+        <v>189</v>
+      </c>
+      <c r="K191" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="1">
+        <v>189</v>
+      </c>
+      <c r="B192" s="1">
+        <v>189</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G192" s="1">
+        <v>189</v>
+      </c>
+      <c r="H192" s="1">
+        <v>190</v>
+      </c>
+      <c r="I192" s="1">
+        <v>1189</v>
+      </c>
+      <c r="J192" s="1">
+        <v>190</v>
+      </c>
+      <c r="K192" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="1">
+        <v>190</v>
+      </c>
+      <c r="B193" s="1">
+        <v>190</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G193" s="1">
+        <v>190</v>
+      </c>
+      <c r="H193" s="1">
+        <v>191</v>
+      </c>
+      <c r="I193" s="1">
+        <v>1190</v>
+      </c>
+      <c r="J193" s="1">
+        <v>191</v>
+      </c>
+      <c r="K193" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="1">
+        <v>191</v>
+      </c>
+      <c r="B194" s="1">
+        <v>191</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G194" s="1">
+        <v>191</v>
+      </c>
+      <c r="H194" s="1">
+        <v>192</v>
+      </c>
+      <c r="I194" s="1">
+        <v>1191</v>
+      </c>
+      <c r="J194" s="1">
+        <v>192</v>
+      </c>
+      <c r="K194" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="1">
+        <v>192</v>
+      </c>
+      <c r="B195" s="1">
+        <v>192</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G195" s="1">
+        <v>192</v>
+      </c>
+      <c r="H195" s="1">
+        <v>193</v>
+      </c>
+      <c r="I195" s="1">
+        <v>1192</v>
+      </c>
+      <c r="J195" s="1">
+        <v>193</v>
+      </c>
+      <c r="K195" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="1">
+        <v>193</v>
+      </c>
+      <c r="B196" s="1">
+        <v>193</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G196" s="1">
+        <v>193</v>
+      </c>
+      <c r="H196" s="1">
+        <v>194</v>
+      </c>
+      <c r="I196" s="1">
+        <v>1193</v>
+      </c>
+      <c r="J196" s="1">
+        <v>194</v>
+      </c>
+      <c r="K196" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="1">
+        <v>194</v>
+      </c>
+      <c r="B197" s="1">
+        <v>194</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G197" s="1">
+        <v>194</v>
+      </c>
+      <c r="H197" s="1">
+        <v>195</v>
+      </c>
+      <c r="I197" s="1">
+        <v>1194</v>
+      </c>
+      <c r="J197" s="1">
+        <v>195</v>
+      </c>
+      <c r="K197" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="1">
+        <v>195</v>
+      </c>
+      <c r="B198" s="1">
+        <v>195</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G198" s="1">
+        <v>195</v>
+      </c>
+      <c r="H198" s="1">
+        <v>196</v>
+      </c>
+      <c r="I198" s="1">
+        <v>1195</v>
+      </c>
+      <c r="J198" s="1">
+        <v>196</v>
+      </c>
+      <c r="K198" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="1">
+        <v>196</v>
+      </c>
+      <c r="B199" s="1">
+        <v>196</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G199" s="1">
+        <v>196</v>
+      </c>
+      <c r="H199" s="1">
+        <v>197</v>
+      </c>
+      <c r="I199" s="1">
+        <v>1196</v>
+      </c>
+      <c r="J199" s="1">
+        <v>197</v>
+      </c>
+      <c r="K199" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="1">
+        <v>197</v>
+      </c>
+      <c r="B200" s="1">
+        <v>197</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G200" s="1">
+        <v>197</v>
+      </c>
+      <c r="H200" s="1">
+        <v>198</v>
+      </c>
+      <c r="I200" s="1">
+        <v>1197</v>
+      </c>
+      <c r="J200" s="1">
+        <v>198</v>
+      </c>
+      <c r="K200" s="1">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Tables/PlantDefine.xlsx
+++ b/Data/Tables/PlantDefine.xlsx
@@ -2592,7 +2592,7 @@
   <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="14.25"/>
@@ -2711,10 +2711,10 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
@@ -2735,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>10001</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>
@@ -2746,10 +2746,10 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
@@ -2770,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="1">
-        <v>1002</v>
+        <v>10002</v>
       </c>
       <c r="J5" s="1">
         <v>3</v>
@@ -2781,10 +2781,10 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
@@ -2805,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="1">
-        <v>1003</v>
+        <v>10003</v>
       </c>
       <c r="J6" s="1">
         <v>4</v>
@@ -2816,10 +2816,10 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:11">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
@@ -2840,7 +2840,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="1">
-        <v>1004</v>
+        <v>10004</v>
       </c>
       <c r="J7" s="1">
         <v>5</v>
@@ -2851,10 +2851,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -2875,7 +2875,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="1">
-        <v>1005</v>
+        <v>10005</v>
       </c>
       <c r="J8" s="1">
         <v>6</v>
@@ -2886,10 +2886,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>26</v>
@@ -2910,7 +2910,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="1">
-        <v>1006</v>
+        <v>10006</v>
       </c>
       <c r="J9" s="1">
         <v>7</v>
@@ -2921,10 +2921,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="B10" s="1">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>26</v>
@@ -2945,7 +2945,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="1">
-        <v>1007</v>
+        <v>10007</v>
       </c>
       <c r="J10" s="1">
         <v>8</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>1008</v>
       </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>1008</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
@@ -2980,7 +2980,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="1">
-        <v>1008</v>
+        <v>10008</v>
       </c>
       <c r="J11" s="1">
         <v>9</v>
@@ -2991,10 +2991,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>1009</v>
       </c>
       <c r="B12" s="1">
-        <v>9</v>
+        <v>1009</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -3015,7 +3015,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>1009</v>
+        <v>10009</v>
       </c>
       <c r="J12" s="1">
         <v>10</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
@@ -3050,7 +3050,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="1">
-        <v>1010</v>
+        <v>10010</v>
       </c>
       <c r="J13" s="1">
         <v>11</v>
@@ -3061,10 +3061,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>1011</v>
       </c>
       <c r="B14" s="1">
-        <v>11</v>
+        <v>1011</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>
@@ -3085,7 +3085,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="1">
-        <v>1011</v>
+        <v>10011</v>
       </c>
       <c r="J14" s="1">
         <v>12</v>
@@ -3096,10 +3096,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>1012</v>
       </c>
       <c r="B15" s="1">
-        <v>12</v>
+        <v>1012</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
@@ -3120,7 +3120,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="1">
-        <v>1012</v>
+        <v>10012</v>
       </c>
       <c r="J15" s="1">
         <v>13</v>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="B16" s="1">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -3155,7 +3155,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="1">
-        <v>1013</v>
+        <v>10013</v>
       </c>
       <c r="J16" s="1">
         <v>14</v>
@@ -3166,10 +3166,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>1014</v>
       </c>
       <c r="B17" s="1">
-        <v>14</v>
+        <v>1014</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -3190,7 +3190,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="1">
-        <v>1014</v>
+        <v>10014</v>
       </c>
       <c r="J17" s="1">
         <v>15</v>
@@ -3201,10 +3201,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>1015</v>
       </c>
       <c r="B18" s="1">
-        <v>15</v>
+        <v>1015</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -3225,7 +3225,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="1">
-        <v>1015</v>
+        <v>10015</v>
       </c>
       <c r="J18" s="1">
         <v>16</v>
@@ -3236,10 +3236,10 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>1016</v>
       </c>
       <c r="B19" s="1">
-        <v>16</v>
+        <v>1016</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -3260,7 +3260,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="1">
-        <v>1016</v>
+        <v>10016</v>
       </c>
       <c r="J19" s="1">
         <v>17</v>
@@ -3271,10 +3271,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>1017</v>
       </c>
       <c r="B20" s="1">
-        <v>17</v>
+        <v>1017</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
@@ -3295,7 +3295,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="1">
-        <v>1017</v>
+        <v>10017</v>
       </c>
       <c r="J20" s="1">
         <v>18</v>
@@ -3306,10 +3306,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>1018</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>1018</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
@@ -3330,7 +3330,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="1">
-        <v>1018</v>
+        <v>10018</v>
       </c>
       <c r="J21" s="1">
         <v>19</v>
@@ -3341,10 +3341,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>1019</v>
       </c>
       <c r="B22" s="1">
-        <v>19</v>
+        <v>1019</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>26</v>
@@ -3365,7 +3365,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="1">
-        <v>1019</v>
+        <v>10019</v>
       </c>
       <c r="J22" s="1">
         <v>20</v>
@@ -3376,10 +3376,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>1020</v>
       </c>
       <c r="B23" s="1">
-        <v>20</v>
+        <v>1020</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
@@ -3400,7 +3400,7 @@
         <v>21</v>
       </c>
       <c r="I23" s="1">
-        <v>1020</v>
+        <v>10020</v>
       </c>
       <c r="J23" s="1">
         <v>21</v>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>1021</v>
       </c>
       <c r="B24" s="1">
-        <v>21</v>
+        <v>1021</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>26</v>
@@ -3435,7 +3435,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>1021</v>
+        <v>10021</v>
       </c>
       <c r="J24" s="1">
         <v>22</v>
@@ -3446,10 +3446,10 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>1022</v>
       </c>
       <c r="B25" s="1">
-        <v>22</v>
+        <v>1022</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>26</v>
@@ -3470,7 +3470,7 @@
         <v>23</v>
       </c>
       <c r="I25" s="1">
-        <v>1022</v>
+        <v>10022</v>
       </c>
       <c r="J25" s="1">
         <v>23</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>23</v>
+        <v>1023</v>
       </c>
       <c r="B26" s="1">
-        <v>23</v>
+        <v>1023</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
@@ -3505,7 +3505,7 @@
         <v>24</v>
       </c>
       <c r="I26" s="1">
-        <v>1023</v>
+        <v>10023</v>
       </c>
       <c r="J26" s="1">
         <v>24</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>1024</v>
       </c>
       <c r="B27" s="1">
-        <v>24</v>
+        <v>1024</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>26</v>
@@ -3540,7 +3540,7 @@
         <v>25</v>
       </c>
       <c r="I27" s="1">
-        <v>1024</v>
+        <v>10024</v>
       </c>
       <c r="J27" s="1">
         <v>25</v>
@@ -3551,10 +3551,10 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>25</v>
+        <v>1025</v>
       </c>
       <c r="B28" s="1">
-        <v>25</v>
+        <v>1025</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>26</v>
@@ -3575,7 +3575,7 @@
         <v>26</v>
       </c>
       <c r="I28" s="1">
-        <v>1025</v>
+        <v>10025</v>
       </c>
       <c r="J28" s="1">
         <v>26</v>
@@ -3586,10 +3586,10 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>26</v>
+        <v>1026</v>
       </c>
       <c r="B29" s="1">
-        <v>26</v>
+        <v>1026</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>26</v>
@@ -3610,7 +3610,7 @@
         <v>27</v>
       </c>
       <c r="I29" s="1">
-        <v>1026</v>
+        <v>10026</v>
       </c>
       <c r="J29" s="1">
         <v>27</v>
@@ -3621,10 +3621,10 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>27</v>
+        <v>1027</v>
       </c>
       <c r="B30" s="1">
-        <v>27</v>
+        <v>1027</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>26</v>
@@ -3645,7 +3645,7 @@
         <v>28</v>
       </c>
       <c r="I30" s="1">
-        <v>1027</v>
+        <v>10027</v>
       </c>
       <c r="J30" s="1">
         <v>28</v>
@@ -3656,10 +3656,10 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>28</v>
+        <v>1028</v>
       </c>
       <c r="B31" s="1">
-        <v>28</v>
+        <v>1028</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>26</v>
@@ -3680,7 +3680,7 @@
         <v>29</v>
       </c>
       <c r="I31" s="1">
-        <v>1028</v>
+        <v>10028</v>
       </c>
       <c r="J31" s="1">
         <v>29</v>
@@ -3691,10 +3691,10 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>29</v>
+        <v>1029</v>
       </c>
       <c r="B32" s="1">
-        <v>29</v>
+        <v>1029</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>26</v>
@@ -3715,7 +3715,7 @@
         <v>30</v>
       </c>
       <c r="I32" s="1">
-        <v>1029</v>
+        <v>10029</v>
       </c>
       <c r="J32" s="1">
         <v>30</v>
@@ -3726,10 +3726,10 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>30</v>
+        <v>1030</v>
       </c>
       <c r="B33" s="1">
-        <v>30</v>
+        <v>1030</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>26</v>
@@ -3750,7 +3750,7 @@
         <v>31</v>
       </c>
       <c r="I33" s="1">
-        <v>1030</v>
+        <v>10030</v>
       </c>
       <c r="J33" s="1">
         <v>31</v>
@@ -3761,10 +3761,10 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>31</v>
+        <v>1031</v>
       </c>
       <c r="B34" s="1">
-        <v>31</v>
+        <v>1031</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>26</v>
@@ -3785,7 +3785,7 @@
         <v>32</v>
       </c>
       <c r="I34" s="1">
-        <v>1031</v>
+        <v>10031</v>
       </c>
       <c r="J34" s="1">
         <v>32</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>32</v>
+        <v>1032</v>
       </c>
       <c r="B35" s="1">
-        <v>32</v>
+        <v>1032</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>26</v>
@@ -3820,7 +3820,7 @@
         <v>33</v>
       </c>
       <c r="I35" s="1">
-        <v>1032</v>
+        <v>10032</v>
       </c>
       <c r="J35" s="1">
         <v>33</v>
@@ -3831,10 +3831,10 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>33</v>
+        <v>1033</v>
       </c>
       <c r="B36" s="1">
-        <v>33</v>
+        <v>1033</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>26</v>
@@ -3855,7 +3855,7 @@
         <v>34</v>
       </c>
       <c r="I36" s="1">
-        <v>1033</v>
+        <v>10033</v>
       </c>
       <c r="J36" s="1">
         <v>34</v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>34</v>
+        <v>1034</v>
       </c>
       <c r="B37" s="1">
-        <v>34</v>
+        <v>1034</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>26</v>
@@ -3890,7 +3890,7 @@
         <v>35</v>
       </c>
       <c r="I37" s="1">
-        <v>1034</v>
+        <v>10034</v>
       </c>
       <c r="J37" s="1">
         <v>35</v>
@@ -3901,10 +3901,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>35</v>
+        <v>1035</v>
       </c>
       <c r="B38" s="1">
-        <v>35</v>
+        <v>1035</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>26</v>
@@ -3925,7 +3925,7 @@
         <v>36</v>
       </c>
       <c r="I38" s="1">
-        <v>1035</v>
+        <v>10035</v>
       </c>
       <c r="J38" s="1">
         <v>36</v>
@@ -3936,10 +3936,10 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>36</v>
+        <v>1036</v>
       </c>
       <c r="B39" s="1">
-        <v>36</v>
+        <v>1036</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>26</v>
@@ -3960,7 +3960,7 @@
         <v>37</v>
       </c>
       <c r="I39" s="1">
-        <v>1036</v>
+        <v>10036</v>
       </c>
       <c r="J39" s="1">
         <v>37</v>
@@ -3971,10 +3971,10 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>37</v>
+        <v>1037</v>
       </c>
       <c r="B40" s="1">
-        <v>37</v>
+        <v>1037</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>26</v>
@@ -3995,7 +3995,7 @@
         <v>38</v>
       </c>
       <c r="I40" s="1">
-        <v>1037</v>
+        <v>10037</v>
       </c>
       <c r="J40" s="1">
         <v>38</v>
@@ -4006,10 +4006,10 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>38</v>
+        <v>1038</v>
       </c>
       <c r="B41" s="1">
-        <v>38</v>
+        <v>1038</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>26</v>
@@ -4030,7 +4030,7 @@
         <v>39</v>
       </c>
       <c r="I41" s="1">
-        <v>1038</v>
+        <v>10038</v>
       </c>
       <c r="J41" s="1">
         <v>39</v>
@@ -4041,10 +4041,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>39</v>
+        <v>1039</v>
       </c>
       <c r="B42" s="1">
-        <v>39</v>
+        <v>1039</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>26</v>
@@ -4065,7 +4065,7 @@
         <v>40</v>
       </c>
       <c r="I42" s="1">
-        <v>1039</v>
+        <v>10039</v>
       </c>
       <c r="J42" s="1">
         <v>40</v>
@@ -4076,10 +4076,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>40</v>
+        <v>1040</v>
       </c>
       <c r="B43" s="1">
-        <v>40</v>
+        <v>1040</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>26</v>
@@ -4100,7 +4100,7 @@
         <v>41</v>
       </c>
       <c r="I43" s="1">
-        <v>1040</v>
+        <v>10040</v>
       </c>
       <c r="J43" s="1">
         <v>41</v>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>41</v>
+        <v>1041</v>
       </c>
       <c r="B44" s="1">
-        <v>41</v>
+        <v>1041</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>26</v>
@@ -4135,7 +4135,7 @@
         <v>42</v>
       </c>
       <c r="I44" s="1">
-        <v>1041</v>
+        <v>10041</v>
       </c>
       <c r="J44" s="1">
         <v>42</v>
@@ -4146,10 +4146,10 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>42</v>
+        <v>1042</v>
       </c>
       <c r="B45" s="1">
-        <v>42</v>
+        <v>1042</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>26</v>
@@ -4170,7 +4170,7 @@
         <v>43</v>
       </c>
       <c r="I45" s="1">
-        <v>1042</v>
+        <v>10042</v>
       </c>
       <c r="J45" s="1">
         <v>43</v>
@@ -4181,10 +4181,10 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>43</v>
+        <v>1043</v>
       </c>
       <c r="B46" s="1">
-        <v>43</v>
+        <v>1043</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>26</v>
@@ -4205,7 +4205,7 @@
         <v>44</v>
       </c>
       <c r="I46" s="1">
-        <v>1043</v>
+        <v>10043</v>
       </c>
       <c r="J46" s="1">
         <v>44</v>
@@ -4216,10 +4216,10 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>44</v>
+        <v>1044</v>
       </c>
       <c r="B47" s="1">
-        <v>44</v>
+        <v>1044</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>26</v>
@@ -4240,7 +4240,7 @@
         <v>45</v>
       </c>
       <c r="I47" s="1">
-        <v>1044</v>
+        <v>10044</v>
       </c>
       <c r="J47" s="1">
         <v>45</v>
@@ -4251,10 +4251,10 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>45</v>
+        <v>1045</v>
       </c>
       <c r="B48" s="1">
-        <v>45</v>
+        <v>1045</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>26</v>
@@ -4275,7 +4275,7 @@
         <v>46</v>
       </c>
       <c r="I48" s="1">
-        <v>1045</v>
+        <v>10045</v>
       </c>
       <c r="J48" s="1">
         <v>46</v>
@@ -4286,10 +4286,10 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>46</v>
+        <v>1046</v>
       </c>
       <c r="B49" s="1">
-        <v>46</v>
+        <v>1046</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>26</v>
@@ -4310,7 +4310,7 @@
         <v>47</v>
       </c>
       <c r="I49" s="1">
-        <v>1046</v>
+        <v>10046</v>
       </c>
       <c r="J49" s="1">
         <v>47</v>
@@ -4321,10 +4321,10 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>47</v>
+        <v>1047</v>
       </c>
       <c r="B50" s="1">
-        <v>47</v>
+        <v>1047</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>26</v>
@@ -4345,7 +4345,7 @@
         <v>48</v>
       </c>
       <c r="I50" s="1">
-        <v>1047</v>
+        <v>10047</v>
       </c>
       <c r="J50" s="1">
         <v>48</v>
@@ -4356,10 +4356,10 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>48</v>
+        <v>1048</v>
       </c>
       <c r="B51" s="1">
-        <v>48</v>
+        <v>1048</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>26</v>
@@ -4380,7 +4380,7 @@
         <v>49</v>
       </c>
       <c r="I51" s="1">
-        <v>1048</v>
+        <v>10048</v>
       </c>
       <c r="J51" s="1">
         <v>49</v>
@@ -4391,10 +4391,10 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>49</v>
+        <v>1049</v>
       </c>
       <c r="B52" s="1">
-        <v>49</v>
+        <v>1049</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>26</v>
@@ -4415,7 +4415,7 @@
         <v>50</v>
       </c>
       <c r="I52" s="1">
-        <v>1049</v>
+        <v>10049</v>
       </c>
       <c r="J52" s="1">
         <v>50</v>
@@ -4426,10 +4426,10 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>50</v>
+        <v>1050</v>
       </c>
       <c r="B53" s="1">
-        <v>50</v>
+        <v>1050</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>26</v>
@@ -4450,7 +4450,7 @@
         <v>51</v>
       </c>
       <c r="I53" s="1">
-        <v>1050</v>
+        <v>10050</v>
       </c>
       <c r="J53" s="1">
         <v>51</v>
@@ -4461,10 +4461,10 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>51</v>
+        <v>1051</v>
       </c>
       <c r="B54" s="1">
-        <v>51</v>
+        <v>1051</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>26</v>
@@ -4485,7 +4485,7 @@
         <v>52</v>
       </c>
       <c r="I54" s="1">
-        <v>1051</v>
+        <v>10051</v>
       </c>
       <c r="J54" s="1">
         <v>52</v>
@@ -4496,10 +4496,10 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>52</v>
+        <v>1052</v>
       </c>
       <c r="B55" s="1">
-        <v>52</v>
+        <v>1052</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>26</v>
@@ -4520,7 +4520,7 @@
         <v>53</v>
       </c>
       <c r="I55" s="1">
-        <v>1052</v>
+        <v>10052</v>
       </c>
       <c r="J55" s="1">
         <v>53</v>
@@ -4531,10 +4531,10 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>53</v>
+        <v>1053</v>
       </c>
       <c r="B56" s="1">
-        <v>53</v>
+        <v>1053</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>26</v>
@@ -4555,7 +4555,7 @@
         <v>54</v>
       </c>
       <c r="I56" s="1">
-        <v>1053</v>
+        <v>10053</v>
       </c>
       <c r="J56" s="1">
         <v>54</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>54</v>
+        <v>1054</v>
       </c>
       <c r="B57" s="1">
-        <v>54</v>
+        <v>1054</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>26</v>
@@ -4590,7 +4590,7 @@
         <v>55</v>
       </c>
       <c r="I57" s="1">
-        <v>1054</v>
+        <v>10054</v>
       </c>
       <c r="J57" s="1">
         <v>55</v>
@@ -4601,10 +4601,10 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>55</v>
+        <v>1055</v>
       </c>
       <c r="B58" s="1">
-        <v>55</v>
+        <v>1055</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>26</v>
@@ -4625,7 +4625,7 @@
         <v>56</v>
       </c>
       <c r="I58" s="1">
-        <v>1055</v>
+        <v>10055</v>
       </c>
       <c r="J58" s="1">
         <v>56</v>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>56</v>
+        <v>1056</v>
       </c>
       <c r="B59" s="1">
-        <v>56</v>
+        <v>1056</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>26</v>
@@ -4660,7 +4660,7 @@
         <v>57</v>
       </c>
       <c r="I59" s="1">
-        <v>1056</v>
+        <v>10056</v>
       </c>
       <c r="J59" s="1">
         <v>57</v>
@@ -4671,10 +4671,10 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>57</v>
+        <v>1057</v>
       </c>
       <c r="B60" s="1">
-        <v>57</v>
+        <v>1057</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>26</v>
@@ -4695,7 +4695,7 @@
         <v>58</v>
       </c>
       <c r="I60" s="1">
-        <v>1057</v>
+        <v>10057</v>
       </c>
       <c r="J60" s="1">
         <v>58</v>
@@ -4706,10 +4706,10 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>58</v>
+        <v>1058</v>
       </c>
       <c r="B61" s="1">
-        <v>58</v>
+        <v>1058</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>26</v>
@@ -4730,7 +4730,7 @@
         <v>59</v>
       </c>
       <c r="I61" s="1">
-        <v>1058</v>
+        <v>10058</v>
       </c>
       <c r="J61" s="1">
         <v>59</v>
@@ -4741,10 +4741,10 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>59</v>
+        <v>1059</v>
       </c>
       <c r="B62" s="1">
-        <v>59</v>
+        <v>1059</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>26</v>
@@ -4765,7 +4765,7 @@
         <v>60</v>
       </c>
       <c r="I62" s="1">
-        <v>1059</v>
+        <v>10059</v>
       </c>
       <c r="J62" s="1">
         <v>60</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>60</v>
+        <v>1060</v>
       </c>
       <c r="B63" s="1">
-        <v>60</v>
+        <v>1060</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>26</v>
@@ -4800,7 +4800,7 @@
         <v>61</v>
       </c>
       <c r="I63" s="1">
-        <v>1060</v>
+        <v>10060</v>
       </c>
       <c r="J63" s="1">
         <v>61</v>
@@ -4811,10 +4811,10 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>61</v>
+        <v>1061</v>
       </c>
       <c r="B64" s="1">
-        <v>61</v>
+        <v>1061</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>26</v>
@@ -4835,7 +4835,7 @@
         <v>62</v>
       </c>
       <c r="I64" s="1">
-        <v>1061</v>
+        <v>10061</v>
       </c>
       <c r="J64" s="1">
         <v>62</v>
@@ -4846,10 +4846,10 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>62</v>
+        <v>1062</v>
       </c>
       <c r="B65" s="1">
-        <v>62</v>
+        <v>1062</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>26</v>
@@ -4870,7 +4870,7 @@
         <v>63</v>
       </c>
       <c r="I65" s="1">
-        <v>1062</v>
+        <v>10062</v>
       </c>
       <c r="J65" s="1">
         <v>63</v>
@@ -4881,10 +4881,10 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>63</v>
+        <v>1063</v>
       </c>
       <c r="B66" s="1">
-        <v>63</v>
+        <v>1063</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>26</v>
@@ -4905,7 +4905,7 @@
         <v>64</v>
       </c>
       <c r="I66" s="1">
-        <v>1063</v>
+        <v>10063</v>
       </c>
       <c r="J66" s="1">
         <v>64</v>
@@ -4916,10 +4916,10 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>64</v>
+        <v>1064</v>
       </c>
       <c r="B67" s="1">
-        <v>64</v>
+        <v>1064</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>26</v>
@@ -4940,7 +4940,7 @@
         <v>65</v>
       </c>
       <c r="I67" s="1">
-        <v>1064</v>
+        <v>10064</v>
       </c>
       <c r="J67" s="1">
         <v>65</v>
@@ -4951,10 +4951,10 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>65</v>
+        <v>1065</v>
       </c>
       <c r="B68" s="1">
-        <v>65</v>
+        <v>1065</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>26</v>
@@ -4975,7 +4975,7 @@
         <v>66</v>
       </c>
       <c r="I68" s="1">
-        <v>1065</v>
+        <v>10065</v>
       </c>
       <c r="J68" s="1">
         <v>66</v>
@@ -4986,10 +4986,10 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>66</v>
+        <v>1066</v>
       </c>
       <c r="B69" s="1">
-        <v>66</v>
+        <v>1066</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>26</v>
@@ -5010,7 +5010,7 @@
         <v>67</v>
       </c>
       <c r="I69" s="1">
-        <v>1066</v>
+        <v>10066</v>
       </c>
       <c r="J69" s="1">
         <v>67</v>
@@ -5021,10 +5021,10 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>67</v>
+        <v>1067</v>
       </c>
       <c r="B70" s="1">
-        <v>67</v>
+        <v>1067</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>26</v>
@@ -5045,7 +5045,7 @@
         <v>68</v>
       </c>
       <c r="I70" s="1">
-        <v>1067</v>
+        <v>10067</v>
       </c>
       <c r="J70" s="1">
         <v>68</v>
@@ -5056,10 +5056,10 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>68</v>
+        <v>1068</v>
       </c>
       <c r="B71" s="1">
-        <v>68</v>
+        <v>1068</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>26</v>
@@ -5080,7 +5080,7 @@
         <v>69</v>
       </c>
       <c r="I71" s="1">
-        <v>1068</v>
+        <v>10068</v>
       </c>
       <c r="J71" s="1">
         <v>69</v>
@@ -5091,10 +5091,10 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>69</v>
+        <v>1069</v>
       </c>
       <c r="B72" s="1">
-        <v>69</v>
+        <v>1069</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>26</v>
@@ -5115,7 +5115,7 @@
         <v>70</v>
       </c>
       <c r="I72" s="1">
-        <v>1069</v>
+        <v>10069</v>
       </c>
       <c r="J72" s="1">
         <v>70</v>
@@ -5126,10 +5126,10 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>70</v>
+        <v>1070</v>
       </c>
       <c r="B73" s="1">
-        <v>70</v>
+        <v>1070</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>26</v>
@@ -5150,7 +5150,7 @@
         <v>71</v>
       </c>
       <c r="I73" s="1">
-        <v>1070</v>
+        <v>10070</v>
       </c>
       <c r="J73" s="1">
         <v>71</v>
@@ -5161,10 +5161,10 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>71</v>
+        <v>1071</v>
       </c>
       <c r="B74" s="1">
-        <v>71</v>
+        <v>1071</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>26</v>
@@ -5185,7 +5185,7 @@
         <v>72</v>
       </c>
       <c r="I74" s="1">
-        <v>1071</v>
+        <v>10071</v>
       </c>
       <c r="J74" s="1">
         <v>72</v>
@@ -5196,10 +5196,10 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>72</v>
+        <v>1072</v>
       </c>
       <c r="B75" s="1">
-        <v>72</v>
+        <v>1072</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>26</v>
@@ -5220,7 +5220,7 @@
         <v>73</v>
       </c>
       <c r="I75" s="1">
-        <v>1072</v>
+        <v>10072</v>
       </c>
       <c r="J75" s="1">
         <v>73</v>
@@ -5231,10 +5231,10 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>73</v>
+        <v>1073</v>
       </c>
       <c r="B76" s="1">
-        <v>73</v>
+        <v>1073</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>26</v>
@@ -5255,7 +5255,7 @@
         <v>74</v>
       </c>
       <c r="I76" s="1">
-        <v>1073</v>
+        <v>10073</v>
       </c>
       <c r="J76" s="1">
         <v>74</v>
@@ -5266,10 +5266,10 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>74</v>
+        <v>1074</v>
       </c>
       <c r="B77" s="1">
-        <v>74</v>
+        <v>1074</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>26</v>
@@ -5290,7 +5290,7 @@
         <v>75</v>
       </c>
       <c r="I77" s="1">
-        <v>1074</v>
+        <v>10074</v>
       </c>
       <c r="J77" s="1">
         <v>75</v>
@@ -5301,10 +5301,10 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>75</v>
+        <v>1075</v>
       </c>
       <c r="B78" s="1">
-        <v>75</v>
+        <v>1075</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>26</v>
@@ -5325,7 +5325,7 @@
         <v>76</v>
       </c>
       <c r="I78" s="1">
-        <v>1075</v>
+        <v>10075</v>
       </c>
       <c r="J78" s="1">
         <v>76</v>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>76</v>
+        <v>1076</v>
       </c>
       <c r="B79" s="1">
-        <v>76</v>
+        <v>1076</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>26</v>
@@ -5360,7 +5360,7 @@
         <v>77</v>
       </c>
       <c r="I79" s="1">
-        <v>1076</v>
+        <v>10076</v>
       </c>
       <c r="J79" s="1">
         <v>77</v>
@@ -5371,10 +5371,10 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1">
-        <v>77</v>
+        <v>1077</v>
       </c>
       <c r="B80" s="1">
-        <v>77</v>
+        <v>1077</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>26</v>
@@ -5395,7 +5395,7 @@
         <v>78</v>
       </c>
       <c r="I80" s="1">
-        <v>1077</v>
+        <v>10077</v>
       </c>
       <c r="J80" s="1">
         <v>78</v>
@@ -5406,10 +5406,10 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1">
-        <v>78</v>
+        <v>1078</v>
       </c>
       <c r="B81" s="1">
-        <v>78</v>
+        <v>1078</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>26</v>
@@ -5430,7 +5430,7 @@
         <v>79</v>
       </c>
       <c r="I81" s="1">
-        <v>1078</v>
+        <v>10078</v>
       </c>
       <c r="J81" s="1">
         <v>79</v>
@@ -5441,10 +5441,10 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1">
-        <v>79</v>
+        <v>1079</v>
       </c>
       <c r="B82" s="1">
-        <v>79</v>
+        <v>1079</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>26</v>
@@ -5465,7 +5465,7 @@
         <v>80</v>
       </c>
       <c r="I82" s="1">
-        <v>1079</v>
+        <v>10079</v>
       </c>
       <c r="J82" s="1">
         <v>80</v>
@@ -5476,10 +5476,10 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1">
-        <v>80</v>
+        <v>1080</v>
       </c>
       <c r="B83" s="1">
-        <v>80</v>
+        <v>1080</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>26</v>
@@ -5500,7 +5500,7 @@
         <v>81</v>
       </c>
       <c r="I83" s="1">
-        <v>1080</v>
+        <v>10080</v>
       </c>
       <c r="J83" s="1">
         <v>81</v>
@@ -5511,10 +5511,10 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1">
-        <v>81</v>
+        <v>1081</v>
       </c>
       <c r="B84" s="1">
-        <v>81</v>
+        <v>1081</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>26</v>
@@ -5535,7 +5535,7 @@
         <v>82</v>
       </c>
       <c r="I84" s="1">
-        <v>1081</v>
+        <v>10081</v>
       </c>
       <c r="J84" s="1">
         <v>82</v>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1">
-        <v>82</v>
+        <v>1082</v>
       </c>
       <c r="B85" s="1">
-        <v>82</v>
+        <v>1082</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>26</v>
@@ -5570,7 +5570,7 @@
         <v>83</v>
       </c>
       <c r="I85" s="1">
-        <v>1082</v>
+        <v>10082</v>
       </c>
       <c r="J85" s="1">
         <v>83</v>
@@ -5581,10 +5581,10 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1">
-        <v>83</v>
+        <v>1083</v>
       </c>
       <c r="B86" s="1">
-        <v>83</v>
+        <v>1083</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>26</v>
@@ -5605,7 +5605,7 @@
         <v>84</v>
       </c>
       <c r="I86" s="1">
-        <v>1083</v>
+        <v>10083</v>
       </c>
       <c r="J86" s="1">
         <v>84</v>
@@ -5616,10 +5616,10 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1">
-        <v>84</v>
+        <v>1084</v>
       </c>
       <c r="B87" s="1">
-        <v>84</v>
+        <v>1084</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>26</v>
@@ -5640,7 +5640,7 @@
         <v>85</v>
       </c>
       <c r="I87" s="1">
-        <v>1084</v>
+        <v>10084</v>
       </c>
       <c r="J87" s="1">
         <v>85</v>
@@ -5651,10 +5651,10 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1">
-        <v>85</v>
+        <v>1085</v>
       </c>
       <c r="B88" s="1">
-        <v>85</v>
+        <v>1085</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>26</v>
@@ -5675,7 +5675,7 @@
         <v>86</v>
       </c>
       <c r="I88" s="1">
-        <v>1085</v>
+        <v>10085</v>
       </c>
       <c r="J88" s="1">
         <v>86</v>
@@ -5686,10 +5686,10 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1">
-        <v>86</v>
+        <v>1086</v>
       </c>
       <c r="B89" s="1">
-        <v>86</v>
+        <v>1086</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>26</v>
@@ -5710,7 +5710,7 @@
         <v>87</v>
       </c>
       <c r="I89" s="1">
-        <v>1086</v>
+        <v>10086</v>
       </c>
       <c r="J89" s="1">
         <v>87</v>
@@ -5721,10 +5721,10 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1">
-        <v>87</v>
+        <v>1087</v>
       </c>
       <c r="B90" s="1">
-        <v>87</v>
+        <v>1087</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>26</v>
@@ -5745,7 +5745,7 @@
         <v>88</v>
       </c>
       <c r="I90" s="1">
-        <v>1087</v>
+        <v>10087</v>
       </c>
       <c r="J90" s="1">
         <v>88</v>
@@ -5756,10 +5756,10 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1">
-        <v>88</v>
+        <v>1088</v>
       </c>
       <c r="B91" s="1">
-        <v>88</v>
+        <v>1088</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>26</v>
@@ -5780,7 +5780,7 @@
         <v>89</v>
       </c>
       <c r="I91" s="1">
-        <v>1088</v>
+        <v>10088</v>
       </c>
       <c r="J91" s="1">
         <v>89</v>
@@ -5791,10 +5791,10 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1">
-        <v>89</v>
+        <v>1089</v>
       </c>
       <c r="B92" s="1">
-        <v>89</v>
+        <v>1089</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>26</v>
@@ -5815,7 +5815,7 @@
         <v>90</v>
       </c>
       <c r="I92" s="1">
-        <v>1089</v>
+        <v>10089</v>
       </c>
       <c r="J92" s="1">
         <v>90</v>
@@ -5826,10 +5826,10 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1">
-        <v>90</v>
+        <v>1090</v>
       </c>
       <c r="B93" s="1">
-        <v>90</v>
+        <v>1090</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>26</v>
@@ -5850,7 +5850,7 @@
         <v>91</v>
       </c>
       <c r="I93" s="1">
-        <v>1090</v>
+        <v>10090</v>
       </c>
       <c r="J93" s="1">
         <v>91</v>
@@ -5861,10 +5861,10 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1">
-        <v>91</v>
+        <v>1091</v>
       </c>
       <c r="B94" s="1">
-        <v>91</v>
+        <v>1091</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>26</v>
@@ -5885,7 +5885,7 @@
         <v>92</v>
       </c>
       <c r="I94" s="1">
-        <v>1091</v>
+        <v>10091</v>
       </c>
       <c r="J94" s="1">
         <v>92</v>
@@ -5896,10 +5896,10 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1">
-        <v>92</v>
+        <v>1092</v>
       </c>
       <c r="B95" s="1">
-        <v>92</v>
+        <v>1092</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>26</v>
@@ -5920,7 +5920,7 @@
         <v>93</v>
       </c>
       <c r="I95" s="1">
-        <v>1092</v>
+        <v>10092</v>
       </c>
       <c r="J95" s="1">
         <v>93</v>
@@ -5931,10 +5931,10 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1">
-        <v>93</v>
+        <v>1093</v>
       </c>
       <c r="B96" s="1">
-        <v>93</v>
+        <v>1093</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>26</v>
@@ -5955,7 +5955,7 @@
         <v>94</v>
       </c>
       <c r="I96" s="1">
-        <v>1093</v>
+        <v>10093</v>
       </c>
       <c r="J96" s="1">
         <v>94</v>
@@ -5966,10 +5966,10 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1">
-        <v>94</v>
+        <v>1094</v>
       </c>
       <c r="B97" s="1">
-        <v>94</v>
+        <v>1094</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>26</v>
@@ -5990,7 +5990,7 @@
         <v>95</v>
       </c>
       <c r="I97" s="1">
-        <v>1094</v>
+        <v>10094</v>
       </c>
       <c r="J97" s="1">
         <v>95</v>
@@ -6001,10 +6001,10 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1">
-        <v>95</v>
+        <v>1095</v>
       </c>
       <c r="B98" s="1">
-        <v>95</v>
+        <v>1095</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>26</v>
@@ -6025,7 +6025,7 @@
         <v>96</v>
       </c>
       <c r="I98" s="1">
-        <v>1095</v>
+        <v>10095</v>
       </c>
       <c r="J98" s="1">
         <v>96</v>
@@ -6036,10 +6036,10 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1">
-        <v>96</v>
+        <v>1096</v>
       </c>
       <c r="B99" s="1">
-        <v>96</v>
+        <v>1096</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>26</v>
@@ -6060,7 +6060,7 @@
         <v>97</v>
       </c>
       <c r="I99" s="1">
-        <v>1096</v>
+        <v>10096</v>
       </c>
       <c r="J99" s="1">
         <v>97</v>
@@ -6071,10 +6071,10 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="1">
-        <v>97</v>
+        <v>1097</v>
       </c>
       <c r="B100" s="1">
-        <v>97</v>
+        <v>1097</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>26</v>
@@ -6095,7 +6095,7 @@
         <v>98</v>
       </c>
       <c r="I100" s="1">
-        <v>1097</v>
+        <v>10097</v>
       </c>
       <c r="J100" s="1">
         <v>98</v>
@@ -6106,10 +6106,10 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="1">
-        <v>98</v>
+        <v>1098</v>
       </c>
       <c r="B101" s="1">
-        <v>98</v>
+        <v>1098</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>26</v>
@@ -6130,7 +6130,7 @@
         <v>99</v>
       </c>
       <c r="I101" s="1">
-        <v>1098</v>
+        <v>10098</v>
       </c>
       <c r="J101" s="1">
         <v>99</v>
@@ -6141,10 +6141,10 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="1">
-        <v>99</v>
+        <v>1099</v>
       </c>
       <c r="B102" s="1">
-        <v>99</v>
+        <v>1099</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>26</v>
@@ -6165,7 +6165,7 @@
         <v>100</v>
       </c>
       <c r="I102" s="1">
-        <v>1099</v>
+        <v>10099</v>
       </c>
       <c r="J102" s="1">
         <v>100</v>
@@ -6176,10 +6176,10 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="1">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="B103" s="1">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>26</v>
@@ -6200,7 +6200,7 @@
         <v>101</v>
       </c>
       <c r="I103" s="1">
-        <v>1100</v>
+        <v>10100</v>
       </c>
       <c r="J103" s="1">
         <v>101</v>
@@ -6211,10 +6211,10 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="1">
-        <v>101</v>
+        <v>1101</v>
       </c>
       <c r="B104" s="1">
-        <v>101</v>
+        <v>1101</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>26</v>
@@ -6235,7 +6235,7 @@
         <v>102</v>
       </c>
       <c r="I104" s="1">
-        <v>1101</v>
+        <v>10101</v>
       </c>
       <c r="J104" s="1">
         <v>102</v>
@@ -6246,10 +6246,10 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="1">
-        <v>102</v>
+        <v>1102</v>
       </c>
       <c r="B105" s="1">
-        <v>102</v>
+        <v>1102</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>26</v>
@@ -6270,7 +6270,7 @@
         <v>103</v>
       </c>
       <c r="I105" s="1">
-        <v>1102</v>
+        <v>10102</v>
       </c>
       <c r="J105" s="1">
         <v>103</v>
@@ -6281,10 +6281,10 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="1">
-        <v>103</v>
+        <v>1103</v>
       </c>
       <c r="B106" s="1">
-        <v>103</v>
+        <v>1103</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>26</v>
@@ -6305,7 +6305,7 @@
         <v>104</v>
       </c>
       <c r="I106" s="1">
-        <v>1103</v>
+        <v>10103</v>
       </c>
       <c r="J106" s="1">
         <v>104</v>
@@ -6316,10 +6316,10 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="1">
-        <v>104</v>
+        <v>1104</v>
       </c>
       <c r="B107" s="1">
-        <v>104</v>
+        <v>1104</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>26</v>
@@ -6340,7 +6340,7 @@
         <v>105</v>
       </c>
       <c r="I107" s="1">
-        <v>1104</v>
+        <v>10104</v>
       </c>
       <c r="J107" s="1">
         <v>105</v>
@@ -6351,10 +6351,10 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="1">
-        <v>105</v>
+        <v>1105</v>
       </c>
       <c r="B108" s="1">
-        <v>105</v>
+        <v>1105</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>26</v>
@@ -6375,7 +6375,7 @@
         <v>106</v>
       </c>
       <c r="I108" s="1">
-        <v>1105</v>
+        <v>10105</v>
       </c>
       <c r="J108" s="1">
         <v>106</v>
@@ -6386,10 +6386,10 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="1">
-        <v>106</v>
+        <v>1106</v>
       </c>
       <c r="B109" s="1">
-        <v>106</v>
+        <v>1106</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>26</v>
@@ -6410,7 +6410,7 @@
         <v>107</v>
       </c>
       <c r="I109" s="1">
-        <v>1106</v>
+        <v>10106</v>
       </c>
       <c r="J109" s="1">
         <v>107</v>
@@ -6421,10 +6421,10 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="1">
-        <v>107</v>
+        <v>1107</v>
       </c>
       <c r="B110" s="1">
-        <v>107</v>
+        <v>1107</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>26</v>
@@ -6445,7 +6445,7 @@
         <v>108</v>
       </c>
       <c r="I110" s="1">
-        <v>1107</v>
+        <v>10107</v>
       </c>
       <c r="J110" s="1">
         <v>108</v>
@@ -6456,10 +6456,10 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="1">
-        <v>108</v>
+        <v>1108</v>
       </c>
       <c r="B111" s="1">
-        <v>108</v>
+        <v>1108</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>26</v>
@@ -6480,7 +6480,7 @@
         <v>109</v>
       </c>
       <c r="I111" s="1">
-        <v>1108</v>
+        <v>10108</v>
       </c>
       <c r="J111" s="1">
         <v>109</v>
@@ -6491,10 +6491,10 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="1">
-        <v>109</v>
+        <v>1109</v>
       </c>
       <c r="B112" s="1">
-        <v>109</v>
+        <v>1109</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>26</v>
@@ -6515,7 +6515,7 @@
         <v>110</v>
       </c>
       <c r="I112" s="1">
-        <v>1109</v>
+        <v>10109</v>
       </c>
       <c r="J112" s="1">
         <v>110</v>
@@ -6526,10 +6526,10 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="1">
-        <v>110</v>
+        <v>1110</v>
       </c>
       <c r="B113" s="1">
-        <v>110</v>
+        <v>1110</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>26</v>
@@ -6550,7 +6550,7 @@
         <v>111</v>
       </c>
       <c r="I113" s="1">
-        <v>1110</v>
+        <v>10110</v>
       </c>
       <c r="J113" s="1">
         <v>111</v>
@@ -6561,10 +6561,10 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1">
-        <v>111</v>
+        <v>1111</v>
       </c>
       <c r="B114" s="1">
-        <v>111</v>
+        <v>1111</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>26</v>
@@ -6585,7 +6585,7 @@
         <v>112</v>
       </c>
       <c r="I114" s="1">
-        <v>1111</v>
+        <v>10111</v>
       </c>
       <c r="J114" s="1">
         <v>112</v>
@@ -6596,10 +6596,10 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="1">
-        <v>112</v>
+        <v>1112</v>
       </c>
       <c r="B115" s="1">
-        <v>112</v>
+        <v>1112</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>26</v>
@@ -6620,7 +6620,7 @@
         <v>113</v>
       </c>
       <c r="I115" s="1">
-        <v>1112</v>
+        <v>10112</v>
       </c>
       <c r="J115" s="1">
         <v>113</v>
@@ -6631,10 +6631,10 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="1">
-        <v>113</v>
+        <v>1113</v>
       </c>
       <c r="B116" s="1">
-        <v>113</v>
+        <v>1113</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>26</v>
@@ -6655,7 +6655,7 @@
         <v>114</v>
       </c>
       <c r="I116" s="1">
-        <v>1113</v>
+        <v>10113</v>
       </c>
       <c r="J116" s="1">
         <v>114</v>
@@ -6666,10 +6666,10 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="1">
-        <v>114</v>
+        <v>1114</v>
       </c>
       <c r="B117" s="1">
-        <v>114</v>
+        <v>1114</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>26</v>
@@ -6690,7 +6690,7 @@
         <v>115</v>
       </c>
       <c r="I117" s="1">
-        <v>1114</v>
+        <v>10114</v>
       </c>
       <c r="J117" s="1">
         <v>115</v>
@@ -6701,10 +6701,10 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="1">
-        <v>115</v>
+        <v>1115</v>
       </c>
       <c r="B118" s="1">
-        <v>115</v>
+        <v>1115</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>26</v>
@@ -6725,7 +6725,7 @@
         <v>116</v>
       </c>
       <c r="I118" s="1">
-        <v>1115</v>
+        <v>10115</v>
       </c>
       <c r="J118" s="1">
         <v>116</v>
@@ -6736,10 +6736,10 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="1">
-        <v>116</v>
+        <v>1116</v>
       </c>
       <c r="B119" s="1">
-        <v>116</v>
+        <v>1116</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>26</v>
@@ -6760,7 +6760,7 @@
         <v>117</v>
       </c>
       <c r="I119" s="1">
-        <v>1116</v>
+        <v>10116</v>
       </c>
       <c r="J119" s="1">
         <v>117</v>
@@ -6771,10 +6771,10 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="1">
-        <v>117</v>
+        <v>1117</v>
       </c>
       <c r="B120" s="1">
-        <v>117</v>
+        <v>1117</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>26</v>
@@ -6795,7 +6795,7 @@
         <v>118</v>
       </c>
       <c r="I120" s="1">
-        <v>1117</v>
+        <v>10117</v>
       </c>
       <c r="J120" s="1">
         <v>118</v>
@@ -6806,10 +6806,10 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="1">
-        <v>118</v>
+        <v>1118</v>
       </c>
       <c r="B121" s="1">
-        <v>118</v>
+        <v>1118</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>26</v>
@@ -6830,7 +6830,7 @@
         <v>119</v>
       </c>
       <c r="I121" s="1">
-        <v>1118</v>
+        <v>10118</v>
       </c>
       <c r="J121" s="1">
         <v>119</v>
@@ -6841,10 +6841,10 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="1">
-        <v>119</v>
+        <v>1119</v>
       </c>
       <c r="B122" s="1">
-        <v>119</v>
+        <v>1119</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>26</v>
@@ -6865,7 +6865,7 @@
         <v>120</v>
       </c>
       <c r="I122" s="1">
-        <v>1119</v>
+        <v>10119</v>
       </c>
       <c r="J122" s="1">
         <v>120</v>
@@ -6876,10 +6876,10 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="1">
-        <v>120</v>
+        <v>1120</v>
       </c>
       <c r="B123" s="1">
-        <v>120</v>
+        <v>1120</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>26</v>
@@ -6900,7 +6900,7 @@
         <v>121</v>
       </c>
       <c r="I123" s="1">
-        <v>1120</v>
+        <v>10120</v>
       </c>
       <c r="J123" s="1">
         <v>121</v>
@@ -6911,10 +6911,10 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="1">
-        <v>121</v>
+        <v>1121</v>
       </c>
       <c r="B124" s="1">
-        <v>121</v>
+        <v>1121</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>26</v>
@@ -6935,7 +6935,7 @@
         <v>122</v>
       </c>
       <c r="I124" s="1">
-        <v>1121</v>
+        <v>10121</v>
       </c>
       <c r="J124" s="1">
         <v>122</v>
@@ -6946,10 +6946,10 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="1">
-        <v>122</v>
+        <v>1122</v>
       </c>
       <c r="B125" s="1">
-        <v>122</v>
+        <v>1122</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>26</v>
@@ -6970,7 +6970,7 @@
         <v>123</v>
       </c>
       <c r="I125" s="1">
-        <v>1122</v>
+        <v>10122</v>
       </c>
       <c r="J125" s="1">
         <v>123</v>
@@ -6981,10 +6981,10 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="1">
-        <v>123</v>
+        <v>1123</v>
       </c>
       <c r="B126" s="1">
-        <v>123</v>
+        <v>1123</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>26</v>
@@ -7005,7 +7005,7 @@
         <v>124</v>
       </c>
       <c r="I126" s="1">
-        <v>1123</v>
+        <v>10123</v>
       </c>
       <c r="J126" s="1">
         <v>124</v>
@@ -7016,10 +7016,10 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="1">
-        <v>124</v>
+        <v>1124</v>
       </c>
       <c r="B127" s="1">
-        <v>124</v>
+        <v>1124</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>26</v>
@@ -7040,7 +7040,7 @@
         <v>125</v>
       </c>
       <c r="I127" s="1">
-        <v>1124</v>
+        <v>10124</v>
       </c>
       <c r="J127" s="1">
         <v>125</v>
@@ -7051,10 +7051,10 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="1">
-        <v>125</v>
+        <v>1125</v>
       </c>
       <c r="B128" s="1">
-        <v>125</v>
+        <v>1125</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>26</v>
@@ -7075,7 +7075,7 @@
         <v>126</v>
       </c>
       <c r="I128" s="1">
-        <v>1125</v>
+        <v>10125</v>
       </c>
       <c r="J128" s="1">
         <v>126</v>
@@ -7086,10 +7086,10 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="1">
-        <v>126</v>
+        <v>1126</v>
       </c>
       <c r="B129" s="1">
-        <v>126</v>
+        <v>1126</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>26</v>
@@ -7110,7 +7110,7 @@
         <v>127</v>
       </c>
       <c r="I129" s="1">
-        <v>1126</v>
+        <v>10126</v>
       </c>
       <c r="J129" s="1">
         <v>127</v>
@@ -7121,10 +7121,10 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="1">
-        <v>127</v>
+        <v>1127</v>
       </c>
       <c r="B130" s="1">
-        <v>127</v>
+        <v>1127</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>26</v>
@@ -7145,7 +7145,7 @@
         <v>128</v>
       </c>
       <c r="I130" s="1">
-        <v>1127</v>
+        <v>10127</v>
       </c>
       <c r="J130" s="1">
         <v>128</v>
@@ -7156,10 +7156,10 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="1">
-        <v>128</v>
+        <v>1128</v>
       </c>
       <c r="B131" s="1">
-        <v>128</v>
+        <v>1128</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>26</v>
@@ -7180,7 +7180,7 @@
         <v>129</v>
       </c>
       <c r="I131" s="1">
-        <v>1128</v>
+        <v>10128</v>
       </c>
       <c r="J131" s="1">
         <v>129</v>
@@ -7191,10 +7191,10 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="1">
-        <v>129</v>
+        <v>1129</v>
       </c>
       <c r="B132" s="1">
-        <v>129</v>
+        <v>1129</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>26</v>
@@ -7215,7 +7215,7 @@
         <v>130</v>
       </c>
       <c r="I132" s="1">
-        <v>1129</v>
+        <v>10129</v>
       </c>
       <c r="J132" s="1">
         <v>130</v>
@@ -7226,10 +7226,10 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="1">
-        <v>130</v>
+        <v>1130</v>
       </c>
       <c r="B133" s="1">
-        <v>130</v>
+        <v>1130</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>26</v>
@@ -7250,7 +7250,7 @@
         <v>131</v>
       </c>
       <c r="I133" s="1">
-        <v>1130</v>
+        <v>10130</v>
       </c>
       <c r="J133" s="1">
         <v>131</v>
@@ -7261,10 +7261,10 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="1">
-        <v>131</v>
+        <v>1131</v>
       </c>
       <c r="B134" s="1">
-        <v>131</v>
+        <v>1131</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>26</v>
@@ -7285,7 +7285,7 @@
         <v>132</v>
       </c>
       <c r="I134" s="1">
-        <v>1131</v>
+        <v>10131</v>
       </c>
       <c r="J134" s="1">
         <v>132</v>
@@ -7296,10 +7296,10 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="1">
-        <v>132</v>
+        <v>1132</v>
       </c>
       <c r="B135" s="1">
-        <v>132</v>
+        <v>1132</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>26</v>
@@ -7320,7 +7320,7 @@
         <v>133</v>
       </c>
       <c r="I135" s="1">
-        <v>1132</v>
+        <v>10132</v>
       </c>
       <c r="J135" s="1">
         <v>133</v>
@@ -7331,10 +7331,10 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="1">
-        <v>133</v>
+        <v>1133</v>
       </c>
       <c r="B136" s="1">
-        <v>133</v>
+        <v>1133</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>26</v>
@@ -7355,7 +7355,7 @@
         <v>134</v>
       </c>
       <c r="I136" s="1">
-        <v>1133</v>
+        <v>10133</v>
       </c>
       <c r="J136" s="1">
         <v>134</v>
@@ -7366,10 +7366,10 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="1">
-        <v>134</v>
+        <v>1134</v>
       </c>
       <c r="B137" s="1">
-        <v>134</v>
+        <v>1134</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>26</v>
@@ -7390,7 +7390,7 @@
         <v>135</v>
       </c>
       <c r="I137" s="1">
-        <v>1134</v>
+        <v>10134</v>
       </c>
       <c r="J137" s="1">
         <v>135</v>
@@ -7401,10 +7401,10 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="1">
-        <v>135</v>
+        <v>1135</v>
       </c>
       <c r="B138" s="1">
-        <v>135</v>
+        <v>1135</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>26</v>
@@ -7425,7 +7425,7 @@
         <v>136</v>
       </c>
       <c r="I138" s="1">
-        <v>1135</v>
+        <v>10135</v>
       </c>
       <c r="J138" s="1">
         <v>136</v>
@@ -7436,10 +7436,10 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="1">
-        <v>136</v>
+        <v>1136</v>
       </c>
       <c r="B139" s="1">
-        <v>136</v>
+        <v>1136</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>26</v>
@@ -7460,7 +7460,7 @@
         <v>137</v>
       </c>
       <c r="I139" s="1">
-        <v>1136</v>
+        <v>10136</v>
       </c>
       <c r="J139" s="1">
         <v>137</v>
@@ -7471,10 +7471,10 @@
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="1">
-        <v>137</v>
+        <v>1137</v>
       </c>
       <c r="B140" s="1">
-        <v>137</v>
+        <v>1137</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>26</v>
@@ -7495,7 +7495,7 @@
         <v>138</v>
       </c>
       <c r="I140" s="1">
-        <v>1137</v>
+        <v>10137</v>
       </c>
       <c r="J140" s="1">
         <v>138</v>
@@ -7506,10 +7506,10 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="1">
-        <v>138</v>
+        <v>1138</v>
       </c>
       <c r="B141" s="1">
-        <v>138</v>
+        <v>1138</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>26</v>
@@ -7530,7 +7530,7 @@
         <v>139</v>
       </c>
       <c r="I141" s="1">
-        <v>1138</v>
+        <v>10138</v>
       </c>
       <c r="J141" s="1">
         <v>139</v>
@@ -7541,10 +7541,10 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="1">
-        <v>139</v>
+        <v>1139</v>
       </c>
       <c r="B142" s="1">
-        <v>139</v>
+        <v>1139</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>26</v>
@@ -7565,7 +7565,7 @@
         <v>140</v>
       </c>
       <c r="I142" s="1">
-        <v>1139</v>
+        <v>10139</v>
       </c>
       <c r="J142" s="1">
         <v>140</v>
@@ -7576,10 +7576,10 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="1">
-        <v>140</v>
+        <v>1140</v>
       </c>
       <c r="B143" s="1">
-        <v>140</v>
+        <v>1140</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>26</v>
@@ -7600,7 +7600,7 @@
         <v>141</v>
       </c>
       <c r="I143" s="1">
-        <v>1140</v>
+        <v>10140</v>
       </c>
       <c r="J143" s="1">
         <v>141</v>
@@ -7611,10 +7611,10 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="1">
-        <v>141</v>
+        <v>1141</v>
       </c>
       <c r="B144" s="1">
-        <v>141</v>
+        <v>1141</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>26</v>
@@ -7635,7 +7635,7 @@
         <v>142</v>
       </c>
       <c r="I144" s="1">
-        <v>1141</v>
+        <v>10141</v>
       </c>
       <c r="J144" s="1">
         <v>142</v>
@@ -7646,10 +7646,10 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="1">
-        <v>142</v>
+        <v>1142</v>
       </c>
       <c r="B145" s="1">
-        <v>142</v>
+        <v>1142</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>26</v>
@@ -7670,7 +7670,7 @@
         <v>143</v>
       </c>
       <c r="I145" s="1">
-        <v>1142</v>
+        <v>10142</v>
       </c>
       <c r="J145" s="1">
         <v>143</v>
@@ -7681,10 +7681,10 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="1">
-        <v>143</v>
+        <v>1143</v>
       </c>
       <c r="B146" s="1">
-        <v>143</v>
+        <v>1143</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>26</v>
@@ -7705,7 +7705,7 @@
         <v>144</v>
       </c>
       <c r="I146" s="1">
-        <v>1143</v>
+        <v>10143</v>
       </c>
       <c r="J146" s="1">
         <v>144</v>
@@ -7716,10 +7716,10 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="1">
-        <v>144</v>
+        <v>1144</v>
       </c>
       <c r="B147" s="1">
-        <v>144</v>
+        <v>1144</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>26</v>
@@ -7740,7 +7740,7 @@
         <v>145</v>
       </c>
       <c r="I147" s="1">
-        <v>1144</v>
+        <v>10144</v>
       </c>
       <c r="J147" s="1">
         <v>145</v>
@@ -7751,10 +7751,10 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="1">
-        <v>145</v>
+        <v>1145</v>
       </c>
       <c r="B148" s="1">
-        <v>145</v>
+        <v>1145</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>26</v>
@@ -7775,7 +7775,7 @@
         <v>146</v>
       </c>
       <c r="I148" s="1">
-        <v>1145</v>
+        <v>10145</v>
       </c>
       <c r="J148" s="1">
         <v>146</v>
@@ -7786,10 +7786,10 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="1">
-        <v>146</v>
+        <v>1146</v>
       </c>
       <c r="B149" s="1">
-        <v>146</v>
+        <v>1146</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>26</v>
@@ -7810,7 +7810,7 @@
         <v>147</v>
       </c>
       <c r="I149" s="1">
-        <v>1146</v>
+        <v>10146</v>
       </c>
       <c r="J149" s="1">
         <v>147</v>
@@ -7821,10 +7821,10 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="1">
-        <v>147</v>
+        <v>1147</v>
       </c>
       <c r="B150" s="1">
-        <v>147</v>
+        <v>1147</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>26</v>
@@ -7845,7 +7845,7 @@
         <v>148</v>
       </c>
       <c r="I150" s="1">
-        <v>1147</v>
+        <v>10147</v>
       </c>
       <c r="J150" s="1">
         <v>148</v>
@@ -7856,10 +7856,10 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="1">
-        <v>148</v>
+        <v>1148</v>
       </c>
       <c r="B151" s="1">
-        <v>148</v>
+        <v>1148</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>26</v>
@@ -7880,7 +7880,7 @@
         <v>149</v>
       </c>
       <c r="I151" s="1">
-        <v>1148</v>
+        <v>10148</v>
       </c>
       <c r="J151" s="1">
         <v>149</v>
@@ -7891,10 +7891,10 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="1">
-        <v>149</v>
+        <v>1149</v>
       </c>
       <c r="B152" s="1">
-        <v>149</v>
+        <v>1149</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>26</v>
@@ -7915,7 +7915,7 @@
         <v>150</v>
       </c>
       <c r="I152" s="1">
-        <v>1149</v>
+        <v>10149</v>
       </c>
       <c r="J152" s="1">
         <v>150</v>
@@ -7926,10 +7926,10 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="1">
-        <v>150</v>
+        <v>1150</v>
       </c>
       <c r="B153" s="1">
-        <v>150</v>
+        <v>1150</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>26</v>
@@ -7950,7 +7950,7 @@
         <v>151</v>
       </c>
       <c r="I153" s="1">
-        <v>1150</v>
+        <v>10150</v>
       </c>
       <c r="J153" s="1">
         <v>151</v>
@@ -7961,10 +7961,10 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="1">
-        <v>151</v>
+        <v>1151</v>
       </c>
       <c r="B154" s="1">
-        <v>151</v>
+        <v>1151</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>26</v>
@@ -7985,7 +7985,7 @@
         <v>152</v>
       </c>
       <c r="I154" s="1">
-        <v>1151</v>
+        <v>10151</v>
       </c>
       <c r="J154" s="1">
         <v>152</v>
@@ -7996,10 +7996,10 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="1">
-        <v>152</v>
+        <v>1152</v>
       </c>
       <c r="B155" s="1">
-        <v>152</v>
+        <v>1152</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>26</v>
@@ -8020,7 +8020,7 @@
         <v>153</v>
       </c>
       <c r="I155" s="1">
-        <v>1152</v>
+        <v>10152</v>
       </c>
       <c r="J155" s="1">
         <v>153</v>
@@ -8031,10 +8031,10 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="1">
-        <v>153</v>
+        <v>1153</v>
       </c>
       <c r="B156" s="1">
-        <v>153</v>
+        <v>1153</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>26</v>
@@ -8055,7 +8055,7 @@
         <v>154</v>
       </c>
       <c r="I156" s="1">
-        <v>1153</v>
+        <v>10153</v>
       </c>
       <c r="J156" s="1">
         <v>154</v>
@@ -8066,10 +8066,10 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="1">
-        <v>154</v>
+        <v>1154</v>
       </c>
       <c r="B157" s="1">
-        <v>154</v>
+        <v>1154</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>26</v>
@@ -8090,7 +8090,7 @@
         <v>155</v>
       </c>
       <c r="I157" s="1">
-        <v>1154</v>
+        <v>10154</v>
       </c>
       <c r="J157" s="1">
         <v>155</v>
@@ -8101,10 +8101,10 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="1">
-        <v>155</v>
+        <v>1155</v>
       </c>
       <c r="B158" s="1">
-        <v>155</v>
+        <v>1155</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>26</v>
@@ -8125,7 +8125,7 @@
         <v>156</v>
       </c>
       <c r="I158" s="1">
-        <v>1155</v>
+        <v>10155</v>
       </c>
       <c r="J158" s="1">
         <v>156</v>
@@ -8136,10 +8136,10 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="1">
-        <v>156</v>
+        <v>1156</v>
       </c>
       <c r="B159" s="1">
-        <v>156</v>
+        <v>1156</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>26</v>
@@ -8160,7 +8160,7 @@
         <v>157</v>
       </c>
       <c r="I159" s="1">
-        <v>1156</v>
+        <v>10156</v>
       </c>
       <c r="J159" s="1">
         <v>157</v>
@@ -8171,10 +8171,10 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="1">
-        <v>157</v>
+        <v>1157</v>
       </c>
       <c r="B160" s="1">
-        <v>157</v>
+        <v>1157</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>26</v>
@@ -8195,7 +8195,7 @@
         <v>158</v>
       </c>
       <c r="I160" s="1">
-        <v>1157</v>
+        <v>10157</v>
       </c>
       <c r="J160" s="1">
         <v>158</v>
@@ -8206,10 +8206,10 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="1">
-        <v>158</v>
+        <v>1158</v>
       </c>
       <c r="B161" s="1">
-        <v>158</v>
+        <v>1158</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>26</v>
@@ -8230,7 +8230,7 @@
         <v>159</v>
       </c>
       <c r="I161" s="1">
-        <v>1158</v>
+        <v>10158</v>
       </c>
       <c r="J161" s="1">
         <v>159</v>
@@ -8241,10 +8241,10 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="1">
-        <v>159</v>
+        <v>1159</v>
       </c>
       <c r="B162" s="1">
-        <v>159</v>
+        <v>1159</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>26</v>
@@ -8265,7 +8265,7 @@
         <v>160</v>
       </c>
       <c r="I162" s="1">
-        <v>1159</v>
+        <v>10159</v>
       </c>
       <c r="J162" s="1">
         <v>160</v>
@@ -8276,10 +8276,10 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="1">
-        <v>160</v>
+        <v>1160</v>
       </c>
       <c r="B163" s="1">
-        <v>160</v>
+        <v>1160</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>26</v>
@@ -8300,7 +8300,7 @@
         <v>161</v>
       </c>
       <c r="I163" s="1">
-        <v>1160</v>
+        <v>10160</v>
       </c>
       <c r="J163" s="1">
         <v>161</v>
@@ -8311,10 +8311,10 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="1">
-        <v>161</v>
+        <v>1161</v>
       </c>
       <c r="B164" s="1">
-        <v>161</v>
+        <v>1161</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>26</v>
@@ -8335,7 +8335,7 @@
         <v>162</v>
       </c>
       <c r="I164" s="1">
-        <v>1161</v>
+        <v>10161</v>
       </c>
       <c r="J164" s="1">
         <v>162</v>
@@ -8346,10 +8346,10 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="1">
-        <v>162</v>
+        <v>1162</v>
       </c>
       <c r="B165" s="1">
-        <v>162</v>
+        <v>1162</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>26</v>
@@ -8370,7 +8370,7 @@
         <v>163</v>
       </c>
       <c r="I165" s="1">
-        <v>1162</v>
+        <v>10162</v>
       </c>
       <c r="J165" s="1">
         <v>163</v>
@@ -8381,10 +8381,10 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="1">
-        <v>163</v>
+        <v>1163</v>
       </c>
       <c r="B166" s="1">
-        <v>163</v>
+        <v>1163</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>26</v>
@@ -8405,7 +8405,7 @@
         <v>164</v>
       </c>
       <c r="I166" s="1">
-        <v>1163</v>
+        <v>10163</v>
       </c>
       <c r="J166" s="1">
         <v>164</v>
@@ -8416,10 +8416,10 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="1">
-        <v>164</v>
+        <v>1164</v>
       </c>
       <c r="B167" s="1">
-        <v>164</v>
+        <v>1164</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>26</v>
@@ -8440,7 +8440,7 @@
         <v>165</v>
       </c>
       <c r="I167" s="1">
-        <v>1164</v>
+        <v>10164</v>
       </c>
       <c r="J167" s="1">
         <v>165</v>
@@ -8451,10 +8451,10 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="1">
-        <v>165</v>
+        <v>1165</v>
       </c>
       <c r="B168" s="1">
-        <v>165</v>
+        <v>1165</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>26</v>
@@ -8475,7 +8475,7 @@
         <v>166</v>
       </c>
       <c r="I168" s="1">
-        <v>1165</v>
+        <v>10165</v>
       </c>
       <c r="J168" s="1">
         <v>166</v>
@@ -8486,10 +8486,10 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="1">
-        <v>166</v>
+        <v>1166</v>
       </c>
       <c r="B169" s="1">
-        <v>166</v>
+        <v>1166</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>26</v>
@@ -8510,7 +8510,7 @@
         <v>167</v>
       </c>
       <c r="I169" s="1">
-        <v>1166</v>
+        <v>10166</v>
       </c>
       <c r="J169" s="1">
         <v>167</v>
@@ -8521,10 +8521,10 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="1">
-        <v>167</v>
+        <v>1167</v>
       </c>
       <c r="B170" s="1">
-        <v>167</v>
+        <v>1167</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>26</v>
@@ -8545,7 +8545,7 @@
         <v>168</v>
       </c>
       <c r="I170" s="1">
-        <v>1167</v>
+        <v>10167</v>
       </c>
       <c r="J170" s="1">
         <v>168</v>
@@ -8556,10 +8556,10 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="1">
-        <v>168</v>
+        <v>1168</v>
       </c>
       <c r="B171" s="1">
-        <v>168</v>
+        <v>1168</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>26</v>
@@ -8580,7 +8580,7 @@
         <v>169</v>
       </c>
       <c r="I171" s="1">
-        <v>1168</v>
+        <v>10168</v>
       </c>
       <c r="J171" s="1">
         <v>169</v>
@@ -8591,10 +8591,10 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="1">
-        <v>169</v>
+        <v>1169</v>
       </c>
       <c r="B172" s="1">
-        <v>169</v>
+        <v>1169</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>26</v>
@@ -8615,7 +8615,7 @@
         <v>170</v>
       </c>
       <c r="I172" s="1">
-        <v>1169</v>
+        <v>10169</v>
       </c>
       <c r="J172" s="1">
         <v>170</v>
@@ -8626,10 +8626,10 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="1">
-        <v>170</v>
+        <v>1170</v>
       </c>
       <c r="B173" s="1">
-        <v>170</v>
+        <v>1170</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>26</v>
@@ -8650,7 +8650,7 @@
         <v>171</v>
       </c>
       <c r="I173" s="1">
-        <v>1170</v>
+        <v>10170</v>
       </c>
       <c r="J173" s="1">
         <v>171</v>
@@ -8661,10 +8661,10 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="1">
-        <v>171</v>
+        <v>1171</v>
       </c>
       <c r="B174" s="1">
-        <v>171</v>
+        <v>1171</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>26</v>
@@ -8685,7 +8685,7 @@
         <v>172</v>
       </c>
       <c r="I174" s="1">
-        <v>1171</v>
+        <v>10171</v>
       </c>
       <c r="J174" s="1">
         <v>172</v>
@@ -8696,10 +8696,10 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="1">
-        <v>172</v>
+        <v>1172</v>
       </c>
       <c r="B175" s="1">
-        <v>172</v>
+        <v>1172</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>26</v>
@@ -8720,7 +8720,7 @@
         <v>173</v>
       </c>
       <c r="I175" s="1">
-        <v>1172</v>
+        <v>10172</v>
       </c>
       <c r="J175" s="1">
         <v>173</v>
@@ -8731,10 +8731,10 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="1">
-        <v>173</v>
+        <v>1173</v>
       </c>
       <c r="B176" s="1">
-        <v>173</v>
+        <v>1173</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>26</v>
@@ -8755,7 +8755,7 @@
         <v>174</v>
       </c>
       <c r="I176" s="1">
-        <v>1173</v>
+        <v>10173</v>
       </c>
       <c r="J176" s="1">
         <v>174</v>
@@ -8766,10 +8766,10 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="1">
-        <v>174</v>
+        <v>1174</v>
       </c>
       <c r="B177" s="1">
-        <v>174</v>
+        <v>1174</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>26</v>
@@ -8790,7 +8790,7 @@
         <v>175</v>
       </c>
       <c r="I177" s="1">
-        <v>1174</v>
+        <v>10174</v>
       </c>
       <c r="J177" s="1">
         <v>175</v>
@@ -8801,10 +8801,10 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="1">
-        <v>175</v>
+        <v>1175</v>
       </c>
       <c r="B178" s="1">
-        <v>175</v>
+        <v>1175</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>26</v>
@@ -8825,7 +8825,7 @@
         <v>176</v>
       </c>
       <c r="I178" s="1">
-        <v>1175</v>
+        <v>10175</v>
       </c>
       <c r="J178" s="1">
         <v>176</v>
@@ -8836,10 +8836,10 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="1">
-        <v>176</v>
+        <v>1176</v>
       </c>
       <c r="B179" s="1">
-        <v>176</v>
+        <v>1176</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>26</v>
@@ -8860,7 +8860,7 @@
         <v>177</v>
       </c>
       <c r="I179" s="1">
-        <v>1176</v>
+        <v>10176</v>
       </c>
       <c r="J179" s="1">
         <v>177</v>
@@ -8871,10 +8871,10 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="1">
-        <v>177</v>
+        <v>1177</v>
       </c>
       <c r="B180" s="1">
-        <v>177</v>
+        <v>1177</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>26</v>
@@ -8895,7 +8895,7 @@
         <v>178</v>
       </c>
       <c r="I180" s="1">
-        <v>1177</v>
+        <v>10177</v>
       </c>
       <c r="J180" s="1">
         <v>178</v>
@@ -8906,10 +8906,10 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="1">
-        <v>178</v>
+        <v>1178</v>
       </c>
       <c r="B181" s="1">
-        <v>178</v>
+        <v>1178</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>26</v>
@@ -8930,7 +8930,7 @@
         <v>179</v>
       </c>
       <c r="I181" s="1">
-        <v>1178</v>
+        <v>10178</v>
       </c>
       <c r="J181" s="1">
         <v>179</v>
@@ -8941,10 +8941,10 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="1">
-        <v>179</v>
+        <v>1179</v>
       </c>
       <c r="B182" s="1">
-        <v>179</v>
+        <v>1179</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>26</v>
@@ -8965,7 +8965,7 @@
         <v>180</v>
       </c>
       <c r="I182" s="1">
-        <v>1179</v>
+        <v>10179</v>
       </c>
       <c r="J182" s="1">
         <v>180</v>
@@ -8976,10 +8976,10 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="1">
-        <v>180</v>
+        <v>1180</v>
       </c>
       <c r="B183" s="1">
-        <v>180</v>
+        <v>1180</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>26</v>
@@ -9000,7 +9000,7 @@
         <v>181</v>
       </c>
       <c r="I183" s="1">
-        <v>1180</v>
+        <v>10180</v>
       </c>
       <c r="J183" s="1">
         <v>181</v>
@@ -9011,10 +9011,10 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="1">
-        <v>181</v>
+        <v>1181</v>
       </c>
       <c r="B184" s="1">
-        <v>181</v>
+        <v>1181</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>26</v>
@@ -9035,7 +9035,7 @@
         <v>182</v>
       </c>
       <c r="I184" s="1">
-        <v>1181</v>
+        <v>10181</v>
       </c>
       <c r="J184" s="1">
         <v>182</v>
@@ -9046,10 +9046,10 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="1">
-        <v>182</v>
+        <v>1182</v>
       </c>
       <c r="B185" s="1">
-        <v>182</v>
+        <v>1182</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>26</v>
@@ -9070,7 +9070,7 @@
         <v>183</v>
       </c>
       <c r="I185" s="1">
-        <v>1182</v>
+        <v>10182</v>
       </c>
       <c r="J185" s="1">
         <v>183</v>
@@ -9081,10 +9081,10 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="1">
-        <v>183</v>
+        <v>1183</v>
       </c>
       <c r="B186" s="1">
-        <v>183</v>
+        <v>1183</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>26</v>
@@ -9105,7 +9105,7 @@
         <v>184</v>
       </c>
       <c r="I186" s="1">
-        <v>1183</v>
+        <v>10183</v>
       </c>
       <c r="J186" s="1">
         <v>184</v>
@@ -9116,10 +9116,10 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="1">
-        <v>184</v>
+        <v>1184</v>
       </c>
       <c r="B187" s="1">
-        <v>184</v>
+        <v>1184</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>26</v>
@@ -9140,7 +9140,7 @@
         <v>185</v>
       </c>
       <c r="I187" s="1">
-        <v>1184</v>
+        <v>10184</v>
       </c>
       <c r="J187" s="1">
         <v>185</v>
@@ -9151,10 +9151,10 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="1">
-        <v>185</v>
+        <v>1185</v>
       </c>
       <c r="B188" s="1">
-        <v>185</v>
+        <v>1185</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>26</v>
@@ -9175,7 +9175,7 @@
         <v>186</v>
       </c>
       <c r="I188" s="1">
-        <v>1185</v>
+        <v>10185</v>
       </c>
       <c r="J188" s="1">
         <v>186</v>
@@ -9186,10 +9186,10 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="1">
-        <v>186</v>
+        <v>1186</v>
       </c>
       <c r="B189" s="1">
-        <v>186</v>
+        <v>1186</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>26</v>
@@ -9210,7 +9210,7 @@
         <v>187</v>
       </c>
       <c r="I189" s="1">
-        <v>1186</v>
+        <v>10186</v>
       </c>
       <c r="J189" s="1">
         <v>187</v>
@@ -9221,10 +9221,10 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="1">
-        <v>187</v>
+        <v>1187</v>
       </c>
       <c r="B190" s="1">
-        <v>187</v>
+        <v>1187</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>26</v>
@@ -9245,7 +9245,7 @@
         <v>188</v>
       </c>
       <c r="I190" s="1">
-        <v>1187</v>
+        <v>10187</v>
       </c>
       <c r="J190" s="1">
         <v>188</v>
@@ -9256,10 +9256,10 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="1">
-        <v>188</v>
+        <v>1188</v>
       </c>
       <c r="B191" s="1">
-        <v>188</v>
+        <v>1188</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>26</v>
@@ -9280,7 +9280,7 @@
         <v>189</v>
       </c>
       <c r="I191" s="1">
-        <v>1188</v>
+        <v>10188</v>
       </c>
       <c r="J191" s="1">
         <v>189</v>
@@ -9291,10 +9291,10 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="1">
-        <v>189</v>
+        <v>1189</v>
       </c>
       <c r="B192" s="1">
-        <v>189</v>
+        <v>1189</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>26</v>
@@ -9315,7 +9315,7 @@
         <v>190</v>
       </c>
       <c r="I192" s="1">
-        <v>1189</v>
+        <v>10189</v>
       </c>
       <c r="J192" s="1">
         <v>190</v>
@@ -9326,10 +9326,10 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="1">
-        <v>190</v>
+        <v>1190</v>
       </c>
       <c r="B193" s="1">
-        <v>190</v>
+        <v>1190</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>26</v>
@@ -9350,7 +9350,7 @@
         <v>191</v>
       </c>
       <c r="I193" s="1">
-        <v>1190</v>
+        <v>10190</v>
       </c>
       <c r="J193" s="1">
         <v>191</v>
@@ -9361,10 +9361,10 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="1">
-        <v>191</v>
+        <v>1191</v>
       </c>
       <c r="B194" s="1">
-        <v>191</v>
+        <v>1191</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>26</v>
@@ -9385,7 +9385,7 @@
         <v>192</v>
       </c>
       <c r="I194" s="1">
-        <v>1191</v>
+        <v>10191</v>
       </c>
       <c r="J194" s="1">
         <v>192</v>
@@ -9396,10 +9396,10 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="1">
-        <v>192</v>
+        <v>1192</v>
       </c>
       <c r="B195" s="1">
-        <v>192</v>
+        <v>1192</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>26</v>
@@ -9420,7 +9420,7 @@
         <v>193</v>
       </c>
       <c r="I195" s="1">
-        <v>1192</v>
+        <v>10192</v>
       </c>
       <c r="J195" s="1">
         <v>193</v>
@@ -9431,10 +9431,10 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="1">
-        <v>193</v>
+        <v>1193</v>
       </c>
       <c r="B196" s="1">
-        <v>193</v>
+        <v>1193</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>26</v>
@@ -9455,7 +9455,7 @@
         <v>194</v>
       </c>
       <c r="I196" s="1">
-        <v>1193</v>
+        <v>10193</v>
       </c>
       <c r="J196" s="1">
         <v>194</v>
@@ -9466,10 +9466,10 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="1">
-        <v>194</v>
+        <v>1194</v>
       </c>
       <c r="B197" s="1">
-        <v>194</v>
+        <v>1194</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>26</v>
@@ -9490,7 +9490,7 @@
         <v>195</v>
       </c>
       <c r="I197" s="1">
-        <v>1194</v>
+        <v>10194</v>
       </c>
       <c r="J197" s="1">
         <v>195</v>
@@ -9501,10 +9501,10 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="1">
-        <v>195</v>
+        <v>1195</v>
       </c>
       <c r="B198" s="1">
-        <v>195</v>
+        <v>1195</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>26</v>
@@ -9525,7 +9525,7 @@
         <v>196</v>
       </c>
       <c r="I198" s="1">
-        <v>1195</v>
+        <v>10195</v>
       </c>
       <c r="J198" s="1">
         <v>196</v>
@@ -9536,10 +9536,10 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="1">
-        <v>196</v>
+        <v>1196</v>
       </c>
       <c r="B199" s="1">
-        <v>196</v>
+        <v>1196</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>26</v>
@@ -9560,7 +9560,7 @@
         <v>197</v>
       </c>
       <c r="I199" s="1">
-        <v>1196</v>
+        <v>10196</v>
       </c>
       <c r="J199" s="1">
         <v>197</v>
@@ -9571,10 +9571,10 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="1">
-        <v>197</v>
+        <v>1197</v>
       </c>
       <c r="B200" s="1">
-        <v>197</v>
+        <v>1197</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>26</v>
@@ -9595,7 +9595,7 @@
         <v>198</v>
       </c>
       <c r="I200" s="1">
-        <v>1197</v>
+        <v>10197</v>
       </c>
       <c r="J200" s="1">
         <v>198</v>

--- a/Data/Tables/PlantDefine.xlsx
+++ b/Data/Tables/PlantDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="30">
   <si>
     <t>字典id</t>
   </si>
@@ -117,1182 +117,6 @@
   </si>
   <si>
     <t>[0,0.4,1]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run4"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,2]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run5"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,3]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run6"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,4]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run7"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,5]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run8"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,6]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run9"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,7]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run10"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,8]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run11"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,9]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run12"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,10]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run13"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,11]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run14"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,12]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run15"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,13]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run16"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,14]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run17"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,15]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run18"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,16]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run19"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,17]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run20"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,18]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run21"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,19]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run22"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,20]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run23"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,21]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run24"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,22]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run25"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,23]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run26"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,24]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run27"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,25]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run28"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,26]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run29"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,27]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run30"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,28]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run31"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,29]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run32"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,30]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run33"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,31]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run34"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,32]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run35"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,33]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run36"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,34]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run37"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,35]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run38"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,36]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run39"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,37]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run40"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,38]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run41"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,39]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run42"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,40]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run43"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,41]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run44"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,42]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run45"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,43]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run46"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,44]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run47"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,45]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run48"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,46]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run49"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,47]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run50"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,48]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run51"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,49]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run52"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,50]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run53"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,51]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run54"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,52]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run55"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,53]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run56"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,54]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run57"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,55]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run58"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,56]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run59"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,57]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run60"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,58]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run61"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,59]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run62"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,60]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run63"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,61]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run64"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,62]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run65"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,63]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run66"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,64]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run67"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,65]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run68"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,66]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run69"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,67]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run70"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,68]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run71"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,69]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run72"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,70]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run73"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,71]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run74"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,72]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run75"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,73]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run76"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,74]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run77"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,75]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run78"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,76]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run79"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,77]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run80"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,78]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run81"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,79]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run82"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,80]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run83"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,81]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run84"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,82]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run85"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,83]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run86"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,84]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run87"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,85]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run88"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,86]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run89"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,87]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run90"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,88]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run91"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,89]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run92"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,90]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run93"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,91]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run94"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,92]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run95"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,93]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run96"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,94]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run97"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,95]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run98"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,96]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run99"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,97]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run100"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,98]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run101"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,99]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run102"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,100]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run103"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,101]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run104"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,102]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run105"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,103]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run106"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,104]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run107"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,105]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run108"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,106]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run109"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,107]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run110"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,108]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run111"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,109]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run112"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,110]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run113"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,111]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run114"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,112]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run115"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,113]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run116"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,114]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run117"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,115]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run118"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,116]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run119"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,117]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run120"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,118]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run121"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,119]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run122"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,120]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run123"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,121]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run124"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,122]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run125"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,123]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run126"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,124]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run127"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,125]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run128"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,126]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run129"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,127]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run130"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,128]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run131"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,129]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run132"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,130]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run133"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,131]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run134"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,132]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run135"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,133]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run136"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,134]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run137"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,135]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run138"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,136]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run139"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,137]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run140"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,138]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run141"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,139]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run142"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,140]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run143"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,141]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run144"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,142]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run145"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,143]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run146"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,144]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run147"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,145]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run148"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,146]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run149"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,147]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run150"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,148]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run151"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,149]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run152"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,150]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run153"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,151]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run154"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,152]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run155"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,153]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run156"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,154]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run157"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,155]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run158"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,156]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run159"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,157]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run160"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,158]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run161"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,159]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run162"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,160]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run163"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,161]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run164"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,162]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run165"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,163]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run166"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,164]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run167"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,165]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run168"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,166]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run169"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,167]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run170"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,168]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run171"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,169]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run172"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,170]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run173"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,171]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run174"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,172]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run175"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,173]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run176"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,174]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run177"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,175]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run178"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,176]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run179"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,177]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run180"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,178]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run181"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,179]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run182"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,180]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run183"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,181]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run184"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,182]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run185"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,183]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run186"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,184]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run187"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,185]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run188"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,186]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run189"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,187]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run190"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,188]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run191"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,189]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run192"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,190]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run193"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,191]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run194"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,192]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run195"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,193]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run196"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,194]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run197"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,195]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run198"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,196]</t>
-  </si>
-  <si>
-    <t>["Run1","Run2","Run199"]</t>
-  </si>
-  <si>
-    <t>[0,0.4,197]</t>
   </si>
 </sst>
 </file>
@@ -2592,7 +1416,7 @@
   <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="14.25"/>
@@ -2755,13 +1579,13 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -2790,13 +1614,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -2825,13 +1649,13 @@
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1">
         <v>4</v>
@@ -2860,13 +1684,13 @@
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1">
         <v>5</v>
@@ -2895,13 +1719,13 @@
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1">
         <v>6</v>
@@ -2930,13 +1754,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1">
         <v>7</v>
@@ -2965,13 +1789,13 @@
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1">
         <v>8</v>
@@ -3000,13 +1824,13 @@
         <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1">
         <v>9</v>
@@ -3035,13 +1859,13 @@
         <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1">
         <v>10</v>
@@ -3070,13 +1894,13 @@
         <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1">
         <v>11</v>
@@ -3105,13 +1929,13 @@
         <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1">
         <v>12</v>
@@ -3140,13 +1964,13 @@
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1">
         <v>13</v>
@@ -3175,13 +1999,13 @@
         <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1">
         <v>14</v>
@@ -3210,13 +2034,13 @@
         <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G18" s="1">
         <v>15</v>
@@ -3245,13 +2069,13 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G19" s="1">
         <v>16</v>
@@ -3280,13 +2104,13 @@
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1">
         <v>17</v>
@@ -3315,13 +2139,13 @@
         <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G21" s="1">
         <v>18</v>
@@ -3350,13 +2174,13 @@
         <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1">
         <v>19</v>
@@ -3385,13 +2209,13 @@
         <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="G23" s="1">
         <v>20</v>
@@ -3420,13 +2244,13 @@
         <v>26</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1">
         <v>21</v>
@@ -3455,13 +2279,13 @@
         <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G25" s="1">
         <v>22</v>
@@ -3490,13 +2314,13 @@
         <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G26" s="1">
         <v>23</v>
@@ -3525,13 +2349,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G27" s="1">
         <v>24</v>
@@ -3560,13 +2384,13 @@
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1">
         <v>25</v>
@@ -3595,13 +2419,13 @@
         <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G29" s="1">
         <v>26</v>
@@ -3630,13 +2454,13 @@
         <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="G30" s="1">
         <v>27</v>
@@ -3665,13 +2489,13 @@
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="G31" s="1">
         <v>28</v>
@@ -3700,13 +2524,13 @@
         <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="G32" s="1">
         <v>29</v>
@@ -3735,13 +2559,13 @@
         <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1">
         <v>30</v>
@@ -3770,13 +2594,13 @@
         <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="G34" s="1">
         <v>31</v>
@@ -3805,13 +2629,13 @@
         <v>26</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="G35" s="1">
         <v>32</v>
@@ -3840,13 +2664,13 @@
         <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="G36" s="1">
         <v>33</v>
@@ -3875,13 +2699,13 @@
         <v>26</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="G37" s="1">
         <v>34</v>
@@ -3910,13 +2734,13 @@
         <v>26</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="G38" s="1">
         <v>35</v>
@@ -3945,13 +2769,13 @@
         <v>26</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="G39" s="1">
         <v>36</v>
@@ -3980,13 +2804,13 @@
         <v>26</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="G40" s="1">
         <v>37</v>
@@ -4015,13 +2839,13 @@
         <v>26</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="G41" s="1">
         <v>38</v>
@@ -4050,13 +2874,13 @@
         <v>26</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="G42" s="1">
         <v>39</v>
@@ -4085,13 +2909,13 @@
         <v>26</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="G43" s="1">
         <v>40</v>
@@ -4120,13 +2944,13 @@
         <v>26</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="G44" s="1">
         <v>41</v>
@@ -4155,13 +2979,13 @@
         <v>26</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="G45" s="1">
         <v>42</v>
@@ -4190,13 +3014,13 @@
         <v>26</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="G46" s="1">
         <v>43</v>
@@ -4225,13 +3049,13 @@
         <v>26</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="G47" s="1">
         <v>44</v>
@@ -4260,13 +3084,13 @@
         <v>26</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="G48" s="1">
         <v>45</v>
@@ -4295,13 +3119,13 @@
         <v>26</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="G49" s="1">
         <v>46</v>
@@ -4330,13 +3154,13 @@
         <v>26</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="G50" s="1">
         <v>47</v>
@@ -4365,13 +3189,13 @@
         <v>26</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="G51" s="1">
         <v>48</v>
@@ -4400,13 +3224,13 @@
         <v>26</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="G52" s="1">
         <v>49</v>
@@ -4435,13 +3259,13 @@
         <v>26</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="G53" s="1">
         <v>50</v>
@@ -4470,13 +3294,13 @@
         <v>26</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="G54" s="1">
         <v>51</v>
@@ -4505,13 +3329,13 @@
         <v>26</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="G55" s="1">
         <v>52</v>
@@ -4540,13 +3364,13 @@
         <v>26</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="G56" s="1">
         <v>53</v>
@@ -4575,13 +3399,13 @@
         <v>26</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="G57" s="1">
         <v>54</v>
@@ -4610,13 +3434,13 @@
         <v>26</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="G58" s="1">
         <v>55</v>
@@ -4645,13 +3469,13 @@
         <v>26</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="G59" s="1">
         <v>56</v>
@@ -4680,13 +3504,13 @@
         <v>26</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="G60" s="1">
         <v>57</v>
@@ -4715,13 +3539,13 @@
         <v>26</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="G61" s="1">
         <v>58</v>
@@ -4750,13 +3574,13 @@
         <v>26</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="G62" s="1">
         <v>59</v>
@@ -4785,13 +3609,13 @@
         <v>26</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="G63" s="1">
         <v>60</v>
@@ -4820,13 +3644,13 @@
         <v>26</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="G64" s="1">
         <v>61</v>
@@ -4855,13 +3679,13 @@
         <v>26</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="G65" s="1">
         <v>62</v>
@@ -4890,13 +3714,13 @@
         <v>26</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="G66" s="1">
         <v>63</v>
@@ -4925,13 +3749,13 @@
         <v>26</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="G67" s="1">
         <v>64</v>
@@ -4960,13 +3784,13 @@
         <v>26</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="G68" s="1">
         <v>65</v>
@@ -4995,13 +3819,13 @@
         <v>26</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="G69" s="1">
         <v>66</v>
@@ -5030,13 +3854,13 @@
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="G70" s="1">
         <v>67</v>
@@ -5065,13 +3889,13 @@
         <v>26</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="G71" s="1">
         <v>68</v>
@@ -5100,13 +3924,13 @@
         <v>26</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="G72" s="1">
         <v>69</v>
@@ -5135,13 +3959,13 @@
         <v>26</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="G73" s="1">
         <v>70</v>
@@ -5170,13 +3994,13 @@
         <v>26</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="G74" s="1">
         <v>71</v>
@@ -5205,13 +4029,13 @@
         <v>26</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="G75" s="1">
         <v>72</v>
@@ -5240,13 +4064,13 @@
         <v>26</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="G76" s="1">
         <v>73</v>
@@ -5275,13 +4099,13 @@
         <v>26</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="G77" s="1">
         <v>74</v>
@@ -5310,13 +4134,13 @@
         <v>26</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="G78" s="1">
         <v>75</v>
@@ -5345,13 +4169,13 @@
         <v>26</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="G79" s="1">
         <v>76</v>
@@ -5380,13 +4204,13 @@
         <v>26</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="G80" s="1">
         <v>77</v>
@@ -5415,13 +4239,13 @@
         <v>26</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="G81" s="1">
         <v>78</v>
@@ -5450,13 +4274,13 @@
         <v>26</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G82" s="1">
         <v>79</v>
@@ -5485,13 +4309,13 @@
         <v>26</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="G83" s="1">
         <v>80</v>
@@ -5520,13 +4344,13 @@
         <v>26</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="G84" s="1">
         <v>81</v>
@@ -5555,13 +4379,13 @@
         <v>26</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="G85" s="1">
         <v>82</v>
@@ -5590,13 +4414,13 @@
         <v>26</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="G86" s="1">
         <v>83</v>
@@ -5625,13 +4449,13 @@
         <v>26</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="G87" s="1">
         <v>84</v>
@@ -5660,13 +4484,13 @@
         <v>26</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="G88" s="1">
         <v>85</v>
@@ -5695,13 +4519,13 @@
         <v>26</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="G89" s="1">
         <v>86</v>
@@ -5730,13 +4554,13 @@
         <v>26</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="G90" s="1">
         <v>87</v>
@@ -5765,13 +4589,13 @@
         <v>26</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="G91" s="1">
         <v>88</v>
@@ -5800,13 +4624,13 @@
         <v>26</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="G92" s="1">
         <v>89</v>
@@ -5835,13 +4659,13 @@
         <v>26</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="G93" s="1">
         <v>90</v>
@@ -5870,13 +4694,13 @@
         <v>26</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="G94" s="1">
         <v>91</v>
@@ -5905,13 +4729,13 @@
         <v>26</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="G95" s="1">
         <v>92</v>
@@ -5940,13 +4764,13 @@
         <v>26</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="G96" s="1">
         <v>93</v>
@@ -5975,13 +4799,13 @@
         <v>26</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="G97" s="1">
         <v>94</v>
@@ -6010,13 +4834,13 @@
         <v>26</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="G98" s="1">
         <v>95</v>
@@ -6045,13 +4869,13 @@
         <v>26</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="G99" s="1">
         <v>96</v>
@@ -6080,13 +4904,13 @@
         <v>26</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="G100" s="1">
         <v>97</v>
@@ -6115,13 +4939,13 @@
         <v>26</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c r="G101" s="1">
         <v>98</v>
@@ -6150,13 +4974,13 @@
         <v>26</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="G102" s="1">
         <v>99</v>
@@ -6185,13 +5009,13 @@
         <v>26</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="G103" s="1">
         <v>100</v>
@@ -6220,13 +5044,13 @@
         <v>26</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="G104" s="1">
         <v>101</v>
@@ -6255,13 +5079,13 @@
         <v>26</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="G105" s="1">
         <v>102</v>
@@ -6290,13 +5114,13 @@
         <v>26</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="G106" s="1">
         <v>103</v>
@@ -6325,13 +5149,13 @@
         <v>26</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="G107" s="1">
         <v>104</v>
@@ -6360,13 +5184,13 @@
         <v>26</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="G108" s="1">
         <v>105</v>
@@ -6395,13 +5219,13 @@
         <v>26</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="G109" s="1">
         <v>106</v>
@@ -6430,13 +5254,13 @@
         <v>26</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="G110" s="1">
         <v>107</v>
@@ -6465,13 +5289,13 @@
         <v>26</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="G111" s="1">
         <v>108</v>
@@ -6500,13 +5324,13 @@
         <v>26</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="G112" s="1">
         <v>109</v>
@@ -6535,13 +5359,13 @@
         <v>26</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="G113" s="1">
         <v>110</v>
@@ -6570,13 +5394,13 @@
         <v>26</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="G114" s="1">
         <v>111</v>
@@ -6605,13 +5429,13 @@
         <v>26</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="G115" s="1">
         <v>112</v>
@@ -6640,13 +5464,13 @@
         <v>26</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="G116" s="1">
         <v>113</v>
@@ -6675,13 +5499,13 @@
         <v>26</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="G117" s="1">
         <v>114</v>
@@ -6710,13 +5534,13 @@
         <v>26</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>256</v>
+        <v>27</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>257</v>
+        <v>29</v>
       </c>
       <c r="G118" s="1">
         <v>115</v>
@@ -6745,13 +5569,13 @@
         <v>26</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="G119" s="1">
         <v>116</v>
@@ -6780,13 +5604,13 @@
         <v>26</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="G120" s="1">
         <v>117</v>
@@ -6815,13 +5639,13 @@
         <v>26</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>263</v>
+        <v>29</v>
       </c>
       <c r="G121" s="1">
         <v>118</v>
@@ -6850,13 +5674,13 @@
         <v>26</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="G122" s="1">
         <v>119</v>
@@ -6885,13 +5709,13 @@
         <v>26</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>266</v>
+        <v>27</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="G123" s="1">
         <v>120</v>
@@ -6920,13 +5744,13 @@
         <v>26</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>268</v>
+        <v>27</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G124" s="1">
         <v>121</v>
@@ -6955,13 +5779,13 @@
         <v>26</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
       <c r="G125" s="1">
         <v>122</v>
@@ -6990,13 +5814,13 @@
         <v>26</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c r="G126" s="1">
         <v>123</v>
@@ -7025,13 +5849,13 @@
         <v>26</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>274</v>
+        <v>27</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="G127" s="1">
         <v>124</v>
@@ -7060,13 +5884,13 @@
         <v>26</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="G128" s="1">
         <v>125</v>
@@ -7095,13 +5919,13 @@
         <v>26</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>278</v>
+        <v>27</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>279</v>
+        <v>29</v>
       </c>
       <c r="G129" s="1">
         <v>126</v>
@@ -7130,13 +5954,13 @@
         <v>26</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>281</v>
+        <v>29</v>
       </c>
       <c r="G130" s="1">
         <v>127</v>
@@ -7165,13 +5989,13 @@
         <v>26</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>282</v>
+        <v>27</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>283</v>
+        <v>29</v>
       </c>
       <c r="G131" s="1">
         <v>128</v>
@@ -7200,13 +6024,13 @@
         <v>26</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>285</v>
+        <v>29</v>
       </c>
       <c r="G132" s="1">
         <v>129</v>
@@ -7235,13 +6059,13 @@
         <v>26</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="G133" s="1">
         <v>130</v>
@@ -7270,13 +6094,13 @@
         <v>26</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="G134" s="1">
         <v>131</v>
@@ -7305,13 +6129,13 @@
         <v>26</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>290</v>
+        <v>27</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>291</v>
+        <v>29</v>
       </c>
       <c r="G135" s="1">
         <v>132</v>
@@ -7340,13 +6164,13 @@
         <v>26</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>292</v>
+        <v>27</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>293</v>
+        <v>29</v>
       </c>
       <c r="G136" s="1">
         <v>133</v>
@@ -7375,13 +6199,13 @@
         <v>26</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>294</v>
+        <v>27</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>295</v>
+        <v>29</v>
       </c>
       <c r="G137" s="1">
         <v>134</v>
@@ -7410,13 +6234,13 @@
         <v>26</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>296</v>
+        <v>27</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>297</v>
+        <v>29</v>
       </c>
       <c r="G138" s="1">
         <v>135</v>
@@ -7445,13 +6269,13 @@
         <v>26</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>298</v>
+        <v>27</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="G139" s="1">
         <v>136</v>
@@ -7480,13 +6304,13 @@
         <v>26</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>300</v>
+        <v>27</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="G140" s="1">
         <v>137</v>
@@ -7515,13 +6339,13 @@
         <v>26</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>302</v>
+        <v>27</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>303</v>
+        <v>29</v>
       </c>
       <c r="G141" s="1">
         <v>138</v>
@@ -7550,13 +6374,13 @@
         <v>26</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>304</v>
+        <v>27</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="G142" s="1">
         <v>139</v>
@@ -7585,13 +6409,13 @@
         <v>26</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>306</v>
+        <v>27</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>307</v>
+        <v>29</v>
       </c>
       <c r="G143" s="1">
         <v>140</v>
@@ -7620,13 +6444,13 @@
         <v>26</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>308</v>
+        <v>27</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="G144" s="1">
         <v>141</v>
@@ -7655,13 +6479,13 @@
         <v>26</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>310</v>
+        <v>27</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="G145" s="1">
         <v>142</v>
@@ -7690,13 +6514,13 @@
         <v>26</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>312</v>
+        <v>27</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>313</v>
+        <v>29</v>
       </c>
       <c r="G146" s="1">
         <v>143</v>
@@ -7725,13 +6549,13 @@
         <v>26</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>314</v>
+        <v>27</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>315</v>
+        <v>29</v>
       </c>
       <c r="G147" s="1">
         <v>144</v>
@@ -7760,13 +6584,13 @@
         <v>26</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>316</v>
+        <v>27</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>317</v>
+        <v>29</v>
       </c>
       <c r="G148" s="1">
         <v>145</v>
@@ -7795,13 +6619,13 @@
         <v>26</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>319</v>
+        <v>29</v>
       </c>
       <c r="G149" s="1">
         <v>146</v>
@@ -7830,13 +6654,13 @@
         <v>26</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="G150" s="1">
         <v>147</v>
@@ -7865,13 +6689,13 @@
         <v>26</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>322</v>
+        <v>27</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>323</v>
+        <v>29</v>
       </c>
       <c r="G151" s="1">
         <v>148</v>
@@ -7900,13 +6724,13 @@
         <v>26</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
       <c r="G152" s="1">
         <v>149</v>
@@ -7935,13 +6759,13 @@
         <v>26</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>326</v>
+        <v>27</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>327</v>
+        <v>29</v>
       </c>
       <c r="G153" s="1">
         <v>150</v>
@@ -7970,13 +6794,13 @@
         <v>26</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>328</v>
+        <v>27</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>329</v>
+        <v>29</v>
       </c>
       <c r="G154" s="1">
         <v>151</v>
@@ -8005,13 +6829,13 @@
         <v>26</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>330</v>
+        <v>27</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>331</v>
+        <v>29</v>
       </c>
       <c r="G155" s="1">
         <v>152</v>
@@ -8040,13 +6864,13 @@
         <v>26</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>332</v>
+        <v>27</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>333</v>
+        <v>29</v>
       </c>
       <c r="G156" s="1">
         <v>153</v>
@@ -8075,13 +6899,13 @@
         <v>26</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>334</v>
+        <v>27</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>335</v>
+        <v>29</v>
       </c>
       <c r="G157" s="1">
         <v>154</v>
@@ -8110,13 +6934,13 @@
         <v>26</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>336</v>
+        <v>27</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>337</v>
+        <v>29</v>
       </c>
       <c r="G158" s="1">
         <v>155</v>
@@ -8145,13 +6969,13 @@
         <v>26</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>338</v>
+        <v>27</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>339</v>
+        <v>29</v>
       </c>
       <c r="G159" s="1">
         <v>156</v>
@@ -8180,13 +7004,13 @@
         <v>26</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="G160" s="1">
         <v>157</v>
@@ -8215,13 +7039,13 @@
         <v>26</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>343</v>
+        <v>29</v>
       </c>
       <c r="G161" s="1">
         <v>158</v>
@@ -8250,13 +7074,13 @@
         <v>26</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>344</v>
+        <v>27</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>345</v>
+        <v>29</v>
       </c>
       <c r="G162" s="1">
         <v>159</v>
@@ -8285,13 +7109,13 @@
         <v>26</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>346</v>
+        <v>27</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>347</v>
+        <v>29</v>
       </c>
       <c r="G163" s="1">
         <v>160</v>
@@ -8320,13 +7144,13 @@
         <v>26</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>348</v>
+        <v>27</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="G164" s="1">
         <v>161</v>
@@ -8355,13 +7179,13 @@
         <v>26</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>350</v>
+        <v>27</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>351</v>
+        <v>29</v>
       </c>
       <c r="G165" s="1">
         <v>162</v>
@@ -8390,13 +7214,13 @@
         <v>26</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>352</v>
+        <v>27</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>353</v>
+        <v>29</v>
       </c>
       <c r="G166" s="1">
         <v>163</v>
@@ -8425,13 +7249,13 @@
         <v>26</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>354</v>
+        <v>27</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>355</v>
+        <v>29</v>
       </c>
       <c r="G167" s="1">
         <v>164</v>
@@ -8460,13 +7284,13 @@
         <v>26</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>356</v>
+        <v>27</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>357</v>
+        <v>29</v>
       </c>
       <c r="G168" s="1">
         <v>165</v>
@@ -8495,13 +7319,13 @@
         <v>26</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>359</v>
+        <v>29</v>
       </c>
       <c r="G169" s="1">
         <v>166</v>
@@ -8530,13 +7354,13 @@
         <v>26</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>360</v>
+        <v>27</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>361</v>
+        <v>29</v>
       </c>
       <c r="G170" s="1">
         <v>167</v>
@@ -8565,13 +7389,13 @@
         <v>26</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>362</v>
+        <v>27</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>363</v>
+        <v>29</v>
       </c>
       <c r="G171" s="1">
         <v>168</v>
@@ -8600,13 +7424,13 @@
         <v>26</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>364</v>
+        <v>27</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>365</v>
+        <v>29</v>
       </c>
       <c r="G172" s="1">
         <v>169</v>
@@ -8635,13 +7459,13 @@
         <v>26</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>367</v>
+        <v>29</v>
       </c>
       <c r="G173" s="1">
         <v>170</v>
@@ -8670,13 +7494,13 @@
         <v>26</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>368</v>
+        <v>27</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>369</v>
+        <v>29</v>
       </c>
       <c r="G174" s="1">
         <v>171</v>
@@ -8705,13 +7529,13 @@
         <v>26</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>370</v>
+        <v>27</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>371</v>
+        <v>29</v>
       </c>
       <c r="G175" s="1">
         <v>172</v>
@@ -8740,13 +7564,13 @@
         <v>26</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>372</v>
+        <v>27</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>373</v>
+        <v>29</v>
       </c>
       <c r="G176" s="1">
         <v>173</v>
@@ -8775,13 +7599,13 @@
         <v>26</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>374</v>
+        <v>27</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>375</v>
+        <v>29</v>
       </c>
       <c r="G177" s="1">
         <v>174</v>
@@ -8810,13 +7634,13 @@
         <v>26</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>376</v>
+        <v>27</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="G178" s="1">
         <v>175</v>
@@ -8845,13 +7669,13 @@
         <v>26</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>378</v>
+        <v>27</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>379</v>
+        <v>29</v>
       </c>
       <c r="G179" s="1">
         <v>176</v>
@@ -8880,13 +7704,13 @@
         <v>26</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>380</v>
+        <v>27</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>381</v>
+        <v>29</v>
       </c>
       <c r="G180" s="1">
         <v>177</v>
@@ -8915,13 +7739,13 @@
         <v>26</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>382</v>
+        <v>27</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>383</v>
+        <v>29</v>
       </c>
       <c r="G181" s="1">
         <v>178</v>
@@ -8950,13 +7774,13 @@
         <v>26</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>384</v>
+        <v>27</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>385</v>
+        <v>29</v>
       </c>
       <c r="G182" s="1">
         <v>179</v>
@@ -8985,13 +7809,13 @@
         <v>26</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>386</v>
+        <v>27</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>387</v>
+        <v>29</v>
       </c>
       <c r="G183" s="1">
         <v>180</v>
@@ -9020,13 +7844,13 @@
         <v>26</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>388</v>
+        <v>27</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>389</v>
+        <v>29</v>
       </c>
       <c r="G184" s="1">
         <v>181</v>
@@ -9055,13 +7879,13 @@
         <v>26</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>390</v>
+        <v>27</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>391</v>
+        <v>29</v>
       </c>
       <c r="G185" s="1">
         <v>182</v>
@@ -9090,13 +7914,13 @@
         <v>26</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>392</v>
+        <v>27</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>393</v>
+        <v>29</v>
       </c>
       <c r="G186" s="1">
         <v>183</v>
@@ -9125,13 +7949,13 @@
         <v>26</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>394</v>
+        <v>27</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>395</v>
+        <v>29</v>
       </c>
       <c r="G187" s="1">
         <v>184</v>
@@ -9160,13 +7984,13 @@
         <v>26</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>396</v>
+        <v>27</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>397</v>
+        <v>29</v>
       </c>
       <c r="G188" s="1">
         <v>185</v>
@@ -9195,13 +8019,13 @@
         <v>26</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>398</v>
+        <v>27</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>399</v>
+        <v>29</v>
       </c>
       <c r="G189" s="1">
         <v>186</v>
@@ -9230,13 +8054,13 @@
         <v>26</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>400</v>
+        <v>27</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>401</v>
+        <v>29</v>
       </c>
       <c r="G190" s="1">
         <v>187</v>
@@ -9265,13 +8089,13 @@
         <v>26</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>402</v>
+        <v>27</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>403</v>
+        <v>29</v>
       </c>
       <c r="G191" s="1">
         <v>188</v>
@@ -9300,13 +8124,13 @@
         <v>26</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>404</v>
+        <v>27</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>405</v>
+        <v>29</v>
       </c>
       <c r="G192" s="1">
         <v>189</v>
@@ -9335,13 +8159,13 @@
         <v>26</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>406</v>
+        <v>27</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>407</v>
+        <v>29</v>
       </c>
       <c r="G193" s="1">
         <v>190</v>
@@ -9370,13 +8194,13 @@
         <v>26</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>408</v>
+        <v>27</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>409</v>
+        <v>29</v>
       </c>
       <c r="G194" s="1">
         <v>191</v>
@@ -9405,13 +8229,13 @@
         <v>26</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>410</v>
+        <v>27</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>411</v>
+        <v>29</v>
       </c>
       <c r="G195" s="1">
         <v>192</v>
@@ -9440,13 +8264,13 @@
         <v>26</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>412</v>
+        <v>27</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>413</v>
+        <v>29</v>
       </c>
       <c r="G196" s="1">
         <v>193</v>
@@ -9475,13 +8299,13 @@
         <v>26</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>414</v>
+        <v>27</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>415</v>
+        <v>29</v>
       </c>
       <c r="G197" s="1">
         <v>194</v>
@@ -9510,13 +8334,13 @@
         <v>26</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>416</v>
+        <v>27</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>417</v>
+        <v>29</v>
       </c>
       <c r="G198" s="1">
         <v>195</v>
@@ -9545,13 +8369,13 @@
         <v>26</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>419</v>
+        <v>29</v>
       </c>
       <c r="G199" s="1">
         <v>196</v>
@@ -9580,13 +8404,13 @@
         <v>26</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>420</v>
+        <v>27</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>421</v>
+        <v>29</v>
       </c>
       <c r="G200" s="1">
         <v>197</v>
